--- a/DOWNLOADS/EDITAIS/U_160524_E_900022025/U_160524_E_900022025_master.xlsx
+++ b/DOWNLOADS/EDITAIS/U_160524_E_900022025/U_160524_E_900022025_master.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1219" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1425" uniqueCount="441">
   <si>
     <t>Nº</t>
   </si>
@@ -1093,7 +1093,229 @@
     <t>Máquina Lavar Piso, Tipo:Automático, Tensão:110 ou 220 V, Capacidade Limpeza: 3.000 M2/H, Capacidade Reservatório Água:50 L</t>
   </si>
   <si>
-    <t>Estação trabalho, tipo: multifuncional, componentes: 1 mesa superfície integrada peninsular em "l", 180, características adicionais: saídas na parte frontal com 750 mm de profund</t>
+    <t>Estação trabalho, tipo: multifuncional, componentes: 1 mesa superfície integrada peninsular em "l", 180, características adicionais: saídas na parte frontal com 750 mm de profundidade, revestimento: laminado melamínico, aplicação: composição ambiente trabalho, estrutura: madeira aglomerada,aço, acabamento estrutura: pintado em epóxi, material pefil: pvc</t>
+  </si>
+  <si>
+    <t>Ventilador, tipo: coluna , pedestal, aplicação: escritório , residencial, potência motor: 200 w, velocidade mínima: 1000 rpm, velocidade máxima: 1.450 rpm, tensão alimentação: 220 v, consumo energia: 0,2 kw,h, características adicionais: oscilante, controle velocidade, regulagem altura e, diâmetro: mínimo de 50 cm</t>
+  </si>
+  <si>
+    <t>Balcão Material: Madeira , Tipo Madeira: Mdf, Espessura Material: 18 MM, Altura: 0,95 M, Largura: 1,61 M, Profundidade: 0,55 M Quantidade Prateleiras: 1 UN, Revestimento: Laminado De Madeira Tauari , Características Adicionais: Gaveta Com Corrediça Telescópica/Duas Portas/Nicho</t>
+  </si>
+  <si>
+    <t>Cadeira sobre longarina, material assento e encosto: espuma injetada, material revestimento assento e encosto: couro ecológico, cor: preta, quantidade assentos: 3 un, características adicionais: com braços fixos, material estofamento: espuma de poliuretano injetado, material estrutura: aço, acabamento superficial longarina: tratamento antiferruginoso, pintura epoxi pó preto, cor longarina: preta</t>
+  </si>
+  <si>
+    <t>Persiana, material: tecido blackout, tipo: vertical, aplicação: ambiente profissional, características adicionais: comando abertura,regulagem em cordão de nylon e co, largura lâmina: 9 cm, cor: natural</t>
+  </si>
+  <si>
+    <t>Cabideiro, material: aço inoxidável, características adicionais: fixado em parede para até 5 aventais de proteção</t>
+  </si>
+  <si>
+    <t>Bancada com pia e armário, componentes: bancada em granito,cuba em inox,armário em madeira, comprimento bancada: 1,20 m, profundidade bancada: 0,55 m, comprimento armário: 1,18 m, profundidade armário: 0,50 m, revestimento armário: laminado melamínico, aplicação: cozinha</t>
+  </si>
+  <si>
+    <t>Televisor, tamanho tela: 65 pol, voltagem: 110,220 v, características adicionais: smart tv, 4 K, wifi. entradas hdmi,usb, conversor, tipo tela: led, acessórios: controle remoto</t>
+  </si>
+  <si>
+    <t>Armário, material: madeira mdf, tipo: escaninho, acabamento superficial: laminado melamínico, cor: argila, características adicionais: com 15 escaninhos</t>
+  </si>
+  <si>
+    <t>Porta-palete, material: aço, tipo: desmontável, comprimento: 2.300 mm, profundidade: 1.200 mm, altura: 2.000 mm, capacidade carga: 1.000 kgf, características adicionais: par de vigas com longarina</t>
+  </si>
+  <si>
+    <t>Palete, material: polietileno alta densidade, comprimento: 100 cm, largura: 120 cm, tipo: universal, quantidade entradas: 4 un, altura: 12,50 cm, capacidade: 4.000 kg</t>
+  </si>
+  <si>
+    <t>Bancada Profissional Material: Aço Inox , Comprimento: 200 CM, Largura: 60 CM, Altura: 92 CM, Espessura: 40 MM, Aplicação: Oficina Mecânica, Características Adicionais: Capacidade De Carga: 400 Kg , Componentes: 2 Prateleiras, Portas Com Trancas E Chave</t>
+  </si>
+  <si>
+    <t>Lixeira, Material: Polietileno Alta Densidade, Capacidade: 30 L, Tipo: Com Tampa Plástica Acionada Por Pedal, Cor: Branca, Características Adicionais: Formato Retangular</t>
+  </si>
+  <si>
+    <t>Quadro Avisos, Material: Alumínio, Comprimento: 150 Cm, Largura: 90 Cm, Finalidade: Mural, Material Moldura: Alumínio, Características Adicionais: Fundo Em Eucatex 10 Mm Acabamento Chapa De Aço Bra</t>
+  </si>
+  <si>
+    <t>Capacho Personalizado, 1cm De Altura, Medidas 1,10cm X 0,70 Cm, Material: Vinil, Cor: Grafite, Características Adicionais: Personalizado, Impressão: Logotipo Do Órgão</t>
+  </si>
+  <si>
+    <t>Armário Copa/Cozinha Material: Aço Inoxidável, Tipo: De Pé , Acabamento Superficial: Escovado, Quantidade Portas: 6 UN, Quantidade Prateleiras: 4 UN, Largura: 0,96 M, Profundidade: 0,40 M, Altura: 1,80</t>
+  </si>
+  <si>
+    <t>Mesa Professor, Material Estrutura:Metálica Tubular, Formato:Retangular, Material Tampo: Aglomerado De Mdp, Espessura Tampo: 25 Mm, Revestimento Tampo: Laminado Melaminico Baixa Pressão, Dimensões: 1200x640x740 Mm, Características Adicionais: 4 Pés/Sapatas Reguláveis/Encabeçamento Fita Polies</t>
+  </si>
+  <si>
+    <t>Tela Projeção Tipo Ajuste Tela: Retrátil Automático, Material: Matte Wite , Cor Acabamento: Preta , Altura: 180 CM, Largura: 2,40 M, Características Adicionais: Enrolamento Automático Por Mola , Tipo Tela: Retrátil , Tensão Entrada: 110/220</t>
+  </si>
+  <si>
+    <t>Cadeira Escolar, Material Estrutura:Metálica, Tratamento Superficial:Pintado Em Epóxi, Cor Estrutura:Preta, Material Encosto:Compensado Revest. C/ Espuma Poliuretano Injetada, Material Assento:Compensado Revest. C/ Espuma Poliuretano Injetada, Material Revestimento Assento E Encosto:Tecido, Cor Revestimento:Azul, Espessura Espuma:30 Cm, Tipo Base:Com Porta Livros / Sapatas Anti-Derrapantes, Características Adicionais:Prancheta Escamoteável Para Destro, Contra Encosto, Material Borda:Pvc Rígido</t>
+  </si>
+  <si>
+    <t>Desumidificador Coletor: 3 L, Voltagem: 110 V, Aplicação: Controle De Temperatura E Umidade , Características Adicionais: Portátil, Com Desligamento Automático</t>
+  </si>
+  <si>
+    <t>Umidificador E Purificador Ambiente, Capacidade:3 L, Voltagem:110/220 V, Características Adicionais:Regula Intensidade E Direção Névoa/Autonomia 10h, Tipo:Ultrasônico E Ionizador</t>
+  </si>
+  <si>
+    <t>Espelho Espessura: 6 MM, Comprimento: 210 CM, Largura: 100 cm, formato retangular, sem bisotê, colado com silicone</t>
+  </si>
+  <si>
+    <t>Manta Antiestática, Material: Borracha, Tipo:Camada Superior Dissipativa E Intermediária Condu-, Comprimento:100 Cm, Largura:100 Cm, Características Adicionais:Cabo/Cordão De Aterramento, Conexão De Pulseira An</t>
+  </si>
+  <si>
+    <t>Manta, Material: Borracha, Largura:1 M, Espessura:3 Mm</t>
+  </si>
+  <si>
+    <t>Conjunto Lixeira Coleta Seletiva, Material:Polietileno Alta Densidade, Quantidade Lixeiras: 5 Un, Capacidade: 100 L, Cor: Amarela, Azul, Vermelha, Verde, Marrom, Características Adicionais: Tampa Vai E Vem, Material Estrutura: Aço Galvanizado, Tratamento Superficial: U.V</t>
+  </si>
+  <si>
+    <t>Bebedouro Água, Tipo:Industrial, Altura:116 Cm, Largura:150 Cm, Profundidade: 60 Cm, Características Adicionais:4 Torneiras Latão Cromado, Serpentina Cobre Locali, Voltagem:220 V, Material Gabinete:Aço Inoxidável, Material Reservatório Água:Aço Inoxidável, Capacidade Água:200 L</t>
+  </si>
+  <si>
+    <t>Carro Limpeza, Material: Metal E Plástico, Tipo:4 Rodízios, Comprimento:114 Cm, Largura:48 Cm, Altura:96 Cm, Aplicação:Limpeza Industrial E Comercial, Características Adicionais:3 Prateleiras, 4 Baldes, Saco Funcional E Tampa</t>
+  </si>
+  <si>
+    <t>Container de Aço/Lixeira. Material: Chapa De Aço Nº 14.Tipo: Câmara De Lixo. Capacidade mínima: 1.200 L. Capacidade de carga aproximada: 920 Kg. Aplicação: Resíduos Sólidos. Características Adicionais: Munhões De Aço Maciços, Tampa Bi-Partida. Tipo de roda: 4 Rodízios giratórios 6 x 15 ferro revestido de borracha. Cor: verde. Pintura Epóxi. Dimensões aproximadas: comprimento 197x Largura 128 x Altura 118 cm. Peso aproximado do produto: 206 Kg.</t>
+  </si>
+  <si>
+    <t>Cadeado tipo Horizontal (Retangular). Com blindagem de aço sólido. Alta Segurança. Material: Latão Maciço com titâneo. Material Haste: Aço Cementado/Cromado. Cilindro: aço inoxidável disco rotativo. Mínimo 4 Chaves com proteção anti-furto. Dimensões aproximadas: largura de 90/24/52,MM; Boca vão abertura 31mm Espessura / Largura pino 1/2" Polegada</t>
+  </si>
+  <si>
+    <t>Projetor Multimídia, Tipo Lâmpada: Led, Voltagem: Bivolt V, Quantidade Entradas Vídeo: 2 UN Tipo Zoom: Motorizado, Tipo: Retroprojeção, Teto Características Adicionais: Conexão: Usb, Wi-Fi E Via Miracast, Luminosidade Mínima: 5.000 LM Tipo Projeção: Frontal, Resolução: 1920 X 1200</t>
+  </si>
+  <si>
+    <t>Máquina Lavar Roupa Tipo: Automática/ Programas de Lavagem: no mínimo 10/ Níveis de Água: no mínimo 3/ Tipo de Abertura: superior / Velocidade de centrifugação aproximada: 640 rpm / Motor com Protetor Térmico / Pés Reguláveis, Capacidade: 17 A 18 KG, Aplicação: Doméstica Voltagem: 127 V, Material Gabinete: Metálico Material Cesto: Aço Inoxidável</t>
+  </si>
+  <si>
+    <t>Mesa Reunião Retangular. Com 2 caixas para tomada. Pés em borracha.Material: Madeira Mdf Dimensões aproximadas: Comprimento: 2,50 M; Largura: 1,10 M; Altura: 0,75 CM, Cor: tipo amadeirada (freijó) Espessura mínima do Tampo: 30 MM</t>
+  </si>
+  <si>
+    <t>Ventilador, Tipo: Parede, Aplicação: Escritório / Residencial Potência mínima Motor: 250 W, Tensão Alimentação: 110/220 V Características Adicionais: Chave Ligação, Controle Velocidade Deslizante, Diâmetro mínimo de: 65 CM</t>
+  </si>
+  <si>
+    <t>Furadeira. Tipo: Impacto E Parafusadeira Tamanho Mandril: 1/2 POL, Tensão Alimentação: 20 V Características Adicionais: Mandril Sem Chave, Gatilho Eletrônico, Luz De Led, Capacidade Perfuração Aço: 13 MM Capacidade Perfuração Madeira: 38 MM Acessórios: 2 Baterias, Carregador E Maleta</t>
+  </si>
+  <si>
+    <t>Martelete Tipo: Rompedor , Potência: 1.510 W, Peso: 5 KG, Tensão Alimentação: 220</t>
+  </si>
+  <si>
+    <t>Esmerilhadeira. Tipo: Angular Voltagem: 127 V, Potência: 2.100 W, Rotação: 6.500 RPM Diâmetro Disco: 9 POL, Características Adicionais: Interruptor De Segurança, Empunhadeira</t>
+  </si>
+  <si>
+    <t>Lixadeira. Potência: 2.500 W Percursos Trabalho Por Minuto: 3.000 UN Largura Lixa: 2.500 MM, Características Adicionais: 2 Tensor Com Protetor; Manguito Aspiração: 88mm, Acessórios: 2 Discos De Borracha:250 Mm; 2 Lixa Cinta Grão:120 Quantidade Discos: 2 UM</t>
+  </si>
+  <si>
+    <t>Tupia Industrial. Diâmetro: 1/2 POL Potência Motor: 930 W, Rotação: 23.000 RPM Diâmetro Fresa: 12 MM, Características Adicionais: Estrutura Com Manopla Em D, Aplicação: Carpintaria.</t>
+  </si>
+  <si>
+    <t>Serra Tico-Tico Manual. Rotação: 3.100 RPM Tensão: 220 V, Aplicação: Oficina, Potência: 710 W Capacidade Corte Madeira: 80 MM, Capacidade Corte Alumínio: 20 MM, Capacidade Corte Aço: 10 MM</t>
+  </si>
+  <si>
+    <t>Máscara Soldador. Tipo: Fotosensível Tempo Escurecimento: 0,5 Milessegundos Tempo Clareamento: 0,2 / 0,4 Segundo Área De Visão: 90 X 34 MM Temperatura Operação: -20 + 65 °C Características Adicionais: Regulagem Da Lente Gradual De 9 A 13 Din</t>
+  </si>
+  <si>
+    <t>Betoneira. Funcionamento Motor: Elétrico Potência Motor: 2 CV Rotação: 26 RPM Capacidade Tambor: 400 L</t>
+  </si>
+  <si>
+    <t>Multímetro. Tensão Ac: 600/1000 V Corrente Dc: 200/60/600/1000 A Corrente Ac: 60/600/1000 A Resistência: 600/6k/60k/600k/6m/60 MOHM Características Adicionais: Display Lcd 3.3/4 Dígitos, 6000 Contagens, Tensão Dc: 600/1000 V Tipo: Digital, Sensibilidade: 20 Mohms, Ac/Dc Capacidade: 1000 V, Funcionamento: 2 Baterias 1,5v (Aaa) Dimensões: 190 X 70 X 30 MM</t>
+  </si>
+  <si>
+    <t>Furadeira Tipo: Impacto E Parafusadeira , Tamanho Mandril: 1/2 POL, Tensão Alimentação: 20 V, Características Adicionais: Mandril Sem Chave, Gatilho Eletrônico, Luz De Led , Capacidade Perfuração Aço: 13 MM, Capacidade Perfuração Madeira: 38 MM, Acessórios: 2 Baterias, Carregador E Maleta</t>
+  </si>
+  <si>
+    <t>Moto-Esmeril. Potência Motor: 360 W Tensão Alimentação: 220 V, Frequência: 60 HZ Características Adicionais: 2 Polos, Rebolo Mínimo 6 X 3/4 X 1/2 Pol, Tipo: Monofásico, Rotação: 3.570 RPM</t>
+  </si>
+  <si>
+    <t>Plaina. Potência: 600 W Largura Corte: 82 MM Profundidade Corte: 9 MM Rotação: 16.000 RPM Voltagem: 220/230 V Características Adicionais: Lâmina, Guia De Profundidade, Bolsa De Pó E Guia D</t>
+  </si>
+  <si>
+    <t>Serra Portátil. Tipo: Sabre Capacidade Corte Madeira: 255 MM Capacidade Corte Aço: 255 MM Capacidade Corte Alumínio: 130 MM Quantidade Golpes Por Minuto: 2800 UN Potência: 1.510 W Tensão Alimentação: 127/110 V Características Adicionais: Industrial</t>
+  </si>
+  <si>
+    <t>Lavadora Alta Pressão Pressão: 2.175 PSI Vazão: 600 L/H Tensão: 220 V Potência Consumida: 3,3 KW Características Adicionais: Proteção Por Fusível 16 A, Cabo De 30m Extensão Tipo: Lava-Jato Freqüência: 60 HZ</t>
+  </si>
+  <si>
+    <t>Escada Extensível Material: Fibra Vidro Material Degrau: Alumínio Quantidade Degraus: 32 UN Altura Fechada: 5,43 M Altura Aberta: 9,60 M Cor: Laranja</t>
+  </si>
+  <si>
+    <t>Peças E Acessórios Solda. Tipo: Conector Macho Aplicação: Cabo Máquina De Solda Material: Plástico Modelo: Macho/Fêmea Do Tipo Engate Rápido</t>
+  </si>
+  <si>
+    <t>Mesa Refeitório Material Tampo: Mdf Revestimento Tampo: Laminado Melamínico Espessura: 25 MM Altura: 0,78 M Acabamento Bordas: Pvc Material Estrutura: Tubo Aço Pintado Acabamento Superficial Estrutura: Pintura Em Epóxi Características Adicionais: 8 Bancos Quadrados Escamoteáveis Cor: Branca Dimensões Da Base: 2.400 X 800 X 780 MM</t>
+  </si>
+  <si>
+    <t>Bebedouro Água Tipo: Industrial Características Adicionais: 2 Torneiras E 1 Jato Gelado Voltagem: 127 V Material Gabinete: Aço Inoxidável Capacidade Água: 100 L</t>
+  </si>
+  <si>
+    <t>Bebedouro Água. Tipo: Pressão Características Adicionais: 2 Saídas, Jato/Copo, Termostato, Serpentina Voltagem: 110V Material Gabinete: Aço Carbono Capacidade Água: 6 L Vazão: 50 L/H</t>
+  </si>
+  <si>
+    <t>Corda Salvamento Material: Poliamida , Tipo: Trançado , Diâmetro: 12 MM, Capacidade Pesos: Até 2.825 K</t>
+  </si>
+  <si>
+    <t>Cinto Segurança Material: 100% Poliéster , Uso: Paraquedista , Comprimento: 1,30 M, Largura: 19 CM, Características Adicionais: Tipo 5 Pontas Com Talabarte , Componentes: Gancho Com Mosquetão, Trava Quedas, Extensor Fitas</t>
+  </si>
+  <si>
+    <t>Capacete Segurança Material: Plástico , Cor: Branca , Aplicação: Construção Civil , Características Adicionais: Aba Frontal,Copa Estrias,Dupla Suspensão E Jugular</t>
+  </si>
+  <si>
+    <t>Andaime Material: Aço Carbono , Modelo: Modular Isolado , Acessórios: 04 Painéis De Tubo, Pés E Acessórios De Travamento , Tratamento Superficial: Pintura Por Imersão , Características Adicionais: Medindo 1,5 X 1,0 M Encaixe Tubular</t>
+  </si>
+  <si>
+    <t>Máquina Solda Portátil. Tipo: Solda Mig/Mag Tensão: 220/380 V Freqüência Nominal: 60 HZ Potência Máxima: 17,50 KVA Fator Potência: 0,80 Faixa Corrente: 45 A 350 A Aplicação: Trabalhos Pequeno/Médio Porte Características Adicionais: Sistema De Refrigeracao Gás, Classe De Isola</t>
+  </si>
+  <si>
+    <t>Máquina Lavar Roupa Tipo: Automática/ Programas de Lavagem: no mínimo 10/ Níveis de Água: no mínimo 3/ Tipo de Abertura: superior / Velocidade de centrifugação aproximada: 640 rpm / Motor com Protetor Térmico / Pés Reguláveis, Capacidade: 17 A 18 KG, Aplicação: Doméstica, Voltagem: 127 V, Material Gabinete: Metálico Material Cesto: Aço Inoxidável</t>
+  </si>
+  <si>
+    <t>Mesa Reunião Retangular. Com 2 caixas para tomada. Pés em borracha., Material: Madeira Mdf Dimensões aproximadas: Comprimento: 2,50 M; Largura: 1,10 M; Altura: 0,75 CM, Cor: tipo amadeirada (freijó) Espessura mínima do Tampo: 30 MM</t>
+  </si>
+  <si>
+    <t>Furadeira. Tipo: Impacto E Parafusadeira, Tamanho Mandril: 1/2 POL, Tensão Alimentação: 20 V Características Adicionais: Mandril Sem Chave, Gatilho Eletrônico, Luz De Led, Capacidade Perfuração Aço: 13 MM Capacidade Perfuração Madeira: 38 MM Acessórios: 2 Baterias, Carregador E Maleta</t>
+  </si>
+  <si>
+    <t>Esmerilhadeira. Tipo: Angular, Voltagem: 127 V Potência: 2.100 W, Rotação: 6.500 RPM Diâmetro Disco: 9 POL, Características Adicionais: Interruptor De Segurança, Empunhadeira</t>
+  </si>
+  <si>
+    <t>Lixadeira. Potência: 2.500 W, Percursos Trabalho Por Minuto: 3.000 UN, Largura Lixa: 2.500 MM Características Adicionais: 2 Tensor Com Protetor; Manguito Aspiração: 88mm, Acessórios: 2 Discos De Borracha:250 Mm; 2 Lixa Cinta Grão:120, Quantidade Discos: 2 UM</t>
+  </si>
+  <si>
+    <t>Tupia Industrial. Diâmetro: 1/2 POL, Potência Motor: 930 W Rotação: 23.000 RPM, Diâmetro Fresa: 12 MM Características Adicionais: Estrutura Com Manopla Em D Aplicação: Carpintaria.</t>
+  </si>
+  <si>
+    <t>Serra Tico-Tico Manual. Rotação: 3.100 RPM Tensão: 220 V, Aplicação: Oficina Potência: 710 W, Capacidade Corte Madeira: 80 MM Capacidade Corte Alumínio: 20 MM Capacidade Corte Aço: 10 MM</t>
+  </si>
+  <si>
+    <t>Multímetro. Tensão Ac: 600/1000 V Corrente Dc: 200/60/600/1000 A Corrente Ac: 60/600/1000 A Resistência: 600/6k/60k/600k/6m/60 MOHM Características Adicionais: Display Lcd 3.3/4 Dígitos, 6000 Contagens, Tensão Dc: 600/1000 V, Tipo: Digital, Sensibilidade: 20 Mohms, Ac/Dc, Capacidade: 1000 V, Funcionamento: 2 Baterias 1,5v (Aaa), Dimensões: 190 X 70 X 30 MM</t>
+  </si>
+  <si>
+    <t>Moto-Esmeril. Potência Motor: 360 W Tensão Alimentação: 220 V Frequência: 60 HZ Características Adicionais: 2 Polos, Rebolo Mínimo 6 X 3/4 X 1/2 Pol Tipo: Monofásico Rotação: 3.570 RPM</t>
+  </si>
+  <si>
+    <t>Bebedouro Água. Tipo: Pressão, Características Adicionais: 2 Saídas, Jato/Copo, Termostato, Serpentina Voltagem: 110V Material Gabinete: Aço Carbono Capacidade Água: 6 L Vazão: 50 L/H</t>
+  </si>
+  <si>
+    <t>Máquina Lavar Roupa Tipo: Automática/ Programas de Lavagem: no mínimo 10/ Níveis de Água: no mínimo 3/ Tipo de Abertura: superior / Velocidade de centrifugação aproximada: 640 rpm / Motor com Protetor Térmico / Pés Reguláveis Capacidade: 17 A 18 KG Aplicação: Doméstica Voltagem: 127 V Material Gabinete: Metálico Material Cesto: Aço Inoxidável</t>
+  </si>
+  <si>
+    <t>Ventilador Tipo: Parede Aplicação: Escritório / Residencial Potência mínima Motor: 250 W Tensão Alimentação: 110/220 V Características Adicionais: Chave Ligação, Controle Velocidade Deslizante, Diâmetro mínimo de: 65 CM</t>
+  </si>
+  <si>
+    <t>Furadeira. Tipo: Impacto E Parafusadeira Tamanho Mandril: 1/2 POL Tensão Alimentação: 20 V Características Adicionais: Mandril Sem Chave, Gatilho Eletrônico, Luz De Led Capacidade Perfuração Aço: 13 MM Capacidade Perfuração Madeira: 38 MM Acessórios: 2 Baterias, Carregador E Maleta</t>
+  </si>
+  <si>
+    <t>Esmerilhadeira. Tipo: Angular Voltagem: 127 V Potência: 2.100 W Rotação: 6.500 RPM Diâmetro Disco: 9 POL Características Adicionais: Interruptor De Segurança, Empunhadeira</t>
+  </si>
+  <si>
+    <t>Lixadeira. Potência: 2.500 W Percursos Trabalho Por Minuto: 3.000 UN Largura Lixa: 2.500 MM Características Adicionais: 2 Tensor Com Protetor; Manguito Aspiração: 88mm Acessórios: 2 Discos De Borracha:250 Mm; 2 Lixa Cinta Grão:120 Quantidade Discos: 2 UM</t>
+  </si>
+  <si>
+    <t>Serra Tico-Tico Manual. Rotação: 3.100 RPM Tensão: 220 V Aplicação: Oficina Potência: 710 W Capacidade Corte Madeira: 80 MM Capacidade Corte Alumínio: 20 MM Capacidade Corte Aço: 10 MM</t>
+  </si>
+  <si>
+    <t>Projetor Multimídia, Tipo Lâmpada: Led, Voltagem: Bivolt V, Quantidade Entradas Vídeo: 2 UN, Tipo Zoom: Motorizado, Tipo: Retroprojeção, Teto, Características Adicionais: Conexão: Usb, Wi-Fi E Via Miracast, Luminosidade Mínima: 5.000 LM Tipo Projeção: Frontal, Resolução: 1920 X 1200</t>
+  </si>
+  <si>
+    <t>Mesa Refeitório, Material Tampo: Mdf, Revestimento Tampo: Laminado Melamínico, Espessura: 25 MM, Altura: 0,78 M Acabamento Bordas: Pvc, Material Estrutura: Tubo Aço Pintado Acabamento Superficial Estrutura: Pintura Em Epóxi Características Adicionais: 8 Bancos Quadrados Escamoteáveis Cor: Branca, Dimensões Da Base: 2.400 X 800 X 780 MM</t>
   </si>
   <si>
     <t>Unidade</t>
@@ -1527,13 +1749,13 @@
         <v>27442.47</v>
       </c>
       <c r="G2" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H2" t="s">
-        <v>363</v>
+        <v>437</v>
       </c>
       <c r="I2" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1556,13 +1778,13 @@
         <v>72939.58</v>
       </c>
       <c r="G3" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H3" t="s">
-        <v>363</v>
+        <v>437</v>
       </c>
       <c r="I3" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1585,13 +1807,13 @@
         <v>51124.42000000001</v>
       </c>
       <c r="G4" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H4" t="s">
-        <v>363</v>
+        <v>437</v>
       </c>
       <c r="I4" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1614,13 +1836,13 @@
         <v>38121.66</v>
       </c>
       <c r="G5" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H5" t="s">
-        <v>363</v>
+        <v>437</v>
       </c>
       <c r="I5" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1643,13 +1865,13 @@
         <v>49250</v>
       </c>
       <c r="G6" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H6" t="s">
-        <v>363</v>
+        <v>437</v>
       </c>
       <c r="I6" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1672,13 +1894,13 @@
         <v>77405.90000000001</v>
       </c>
       <c r="G7" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H7" t="s">
-        <v>363</v>
+        <v>437</v>
       </c>
       <c r="I7" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1701,13 +1923,13 @@
         <v>37652.57999999999</v>
       </c>
       <c r="G8" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H8" t="s">
-        <v>363</v>
+        <v>437</v>
       </c>
       <c r="I8" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1730,13 +1952,13 @@
         <v>69765.28</v>
       </c>
       <c r="G9" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H9" t="s">
-        <v>363</v>
+        <v>437</v>
       </c>
       <c r="I9" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1759,13 +1981,13 @@
         <v>8603.200000000001</v>
       </c>
       <c r="G10" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H10" t="s">
-        <v>363</v>
+        <v>437</v>
       </c>
       <c r="I10" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1788,13 +2010,13 @@
         <v>5319.18</v>
       </c>
       <c r="G11" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H11" t="s">
-        <v>363</v>
+        <v>437</v>
       </c>
       <c r="I11" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1817,13 +2039,13 @@
         <v>40096.7</v>
       </c>
       <c r="G12" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H12" t="s">
-        <v>363</v>
+        <v>437</v>
       </c>
       <c r="I12" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1846,13 +2068,13 @@
         <v>63261.06</v>
       </c>
       <c r="G13" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H13" t="s">
-        <v>363</v>
+        <v>437</v>
       </c>
       <c r="I13" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1875,13 +2097,13 @@
         <v>55490.64</v>
       </c>
       <c r="G14" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H14" t="s">
-        <v>363</v>
+        <v>437</v>
       </c>
       <c r="I14" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1904,13 +2126,13 @@
         <v>118808.04</v>
       </c>
       <c r="G15" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H15" t="s">
-        <v>363</v>
+        <v>437</v>
       </c>
       <c r="I15" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1933,13 +2155,13 @@
         <v>179657.1</v>
       </c>
       <c r="G16" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H16" t="s">
-        <v>363</v>
+        <v>437</v>
       </c>
       <c r="I16" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1962,13 +2184,13 @@
         <v>5345.76</v>
       </c>
       <c r="G17" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H17" t="s">
-        <v>363</v>
+        <v>437</v>
       </c>
       <c r="I17" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1991,13 +2213,13 @@
         <v>49195.74</v>
       </c>
       <c r="G18" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H18" t="s">
-        <v>363</v>
+        <v>437</v>
       </c>
       <c r="I18" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -2020,13 +2242,13 @@
         <v>23263.02</v>
       </c>
       <c r="G19" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H19" t="s">
-        <v>363</v>
+        <v>437</v>
       </c>
       <c r="I19" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -2049,13 +2271,13 @@
         <v>91653</v>
       </c>
       <c r="G20" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H20" t="s">
-        <v>363</v>
+        <v>437</v>
       </c>
       <c r="I20" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -2078,13 +2300,13 @@
         <v>159510</v>
       </c>
       <c r="G21" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H21" t="s">
-        <v>363</v>
+        <v>437</v>
       </c>
       <c r="I21" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -2107,13 +2329,13 @@
         <v>131604</v>
       </c>
       <c r="G22" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H22" t="s">
-        <v>363</v>
+        <v>437</v>
       </c>
       <c r="I22" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -2136,13 +2358,13 @@
         <v>19411.08</v>
       </c>
       <c r="G23" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H23" t="s">
-        <v>363</v>
+        <v>437</v>
       </c>
       <c r="I23" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -2165,13 +2387,13 @@
         <v>52635.82999999999</v>
       </c>
       <c r="G24" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H24" t="s">
-        <v>363</v>
+        <v>437</v>
       </c>
       <c r="I24" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -2194,13 +2416,13 @@
         <v>13458.12</v>
       </c>
       <c r="G25" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H25" t="s">
-        <v>363</v>
+        <v>437</v>
       </c>
       <c r="I25" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -2223,13 +2445,13 @@
         <v>17040</v>
       </c>
       <c r="G26" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H26" t="s">
-        <v>363</v>
+        <v>437</v>
       </c>
       <c r="I26" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -2252,13 +2474,13 @@
         <v>6443</v>
       </c>
       <c r="G27" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H27" t="s">
-        <v>363</v>
+        <v>437</v>
       </c>
       <c r="I27" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -2281,13 +2503,13 @@
         <v>32670</v>
       </c>
       <c r="G28" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H28" t="s">
-        <v>363</v>
+        <v>437</v>
       </c>
       <c r="I28" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -2310,13 +2532,13 @@
         <v>22552.62</v>
       </c>
       <c r="G29" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H29" t="s">
-        <v>363</v>
+        <v>437</v>
       </c>
       <c r="I29" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -2339,13 +2561,13 @@
         <v>14869.95</v>
       </c>
       <c r="G30" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H30" t="s">
-        <v>363</v>
+        <v>437</v>
       </c>
       <c r="I30" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -2368,13 +2590,13 @@
         <v>49585</v>
       </c>
       <c r="G31" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H31" t="s">
-        <v>363</v>
+        <v>437</v>
       </c>
       <c r="I31" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -2384,6 +2606,9 @@
       <c r="B32" t="s">
         <v>275</v>
       </c>
+      <c r="C32" t="s">
+        <v>360</v>
+      </c>
       <c r="D32">
         <v>81</v>
       </c>
@@ -2394,13 +2619,13 @@
         <v>22435.38</v>
       </c>
       <c r="G32" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H32" t="s">
-        <v>363</v>
+        <v>437</v>
       </c>
       <c r="I32" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -2410,6 +2635,9 @@
       <c r="B33" t="s">
         <v>276</v>
       </c>
+      <c r="C33" t="s">
+        <v>361</v>
+      </c>
       <c r="D33">
         <v>22</v>
       </c>
@@ -2420,13 +2648,13 @@
         <v>19580</v>
       </c>
       <c r="G33" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H33" t="s">
-        <v>363</v>
+        <v>437</v>
       </c>
       <c r="I33" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -2436,6 +2664,9 @@
       <c r="B34" t="s">
         <v>277</v>
       </c>
+      <c r="C34" t="s">
+        <v>362</v>
+      </c>
       <c r="D34">
         <v>61</v>
       </c>
@@ -2446,13 +2677,13 @@
         <v>53781.25999999999</v>
       </c>
       <c r="G34" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H34" t="s">
-        <v>363</v>
+        <v>437</v>
       </c>
       <c r="I34" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -2462,6 +2693,9 @@
       <c r="B35" t="s">
         <v>278</v>
       </c>
+      <c r="C35" t="s">
+        <v>363</v>
+      </c>
       <c r="D35">
         <v>279</v>
       </c>
@@ -2472,13 +2706,13 @@
         <v>109926</v>
       </c>
       <c r="G35" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H35" t="s">
-        <v>363</v>
+        <v>437</v>
       </c>
       <c r="I35" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -2488,6 +2722,9 @@
       <c r="B36" t="s">
         <v>279</v>
       </c>
+      <c r="C36" t="s">
+        <v>364</v>
+      </c>
       <c r="D36">
         <v>39</v>
       </c>
@@ -2498,13 +2735,13 @@
         <v>28226.25</v>
       </c>
       <c r="G36" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H36" t="s">
-        <v>363</v>
+        <v>437</v>
       </c>
       <c r="I36" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -2514,6 +2751,9 @@
       <c r="B37" t="s">
         <v>280</v>
       </c>
+      <c r="C37" t="s">
+        <v>365</v>
+      </c>
       <c r="D37">
         <v>24</v>
       </c>
@@ -2524,13 +2764,13 @@
         <v>87212.16</v>
       </c>
       <c r="G37" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H37" t="s">
-        <v>363</v>
+        <v>437</v>
       </c>
       <c r="I37" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -2540,6 +2780,9 @@
       <c r="B38" t="s">
         <v>281</v>
       </c>
+      <c r="C38" t="s">
+        <v>366</v>
+      </c>
       <c r="D38">
         <v>19</v>
       </c>
@@ -2550,13 +2793,13 @@
         <v>74100</v>
       </c>
       <c r="G38" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H38" t="s">
-        <v>363</v>
+        <v>437</v>
       </c>
       <c r="I38" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -2566,6 +2809,9 @@
       <c r="B39" t="s">
         <v>282</v>
       </c>
+      <c r="C39" t="s">
+        <v>367</v>
+      </c>
       <c r="D39">
         <v>50</v>
       </c>
@@ -2576,13 +2822,13 @@
         <v>42000</v>
       </c>
       <c r="G39" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H39" t="s">
-        <v>363</v>
+        <v>437</v>
       </c>
       <c r="I39" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -2592,6 +2838,9 @@
       <c r="B40" t="s">
         <v>283</v>
       </c>
+      <c r="C40" t="s">
+        <v>368</v>
+      </c>
       <c r="D40">
         <v>45</v>
       </c>
@@ -2602,13 +2851,13 @@
         <v>61774.2</v>
       </c>
       <c r="G40" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H40" t="s">
-        <v>363</v>
+        <v>437</v>
       </c>
       <c r="I40" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -2618,6 +2867,9 @@
       <c r="B41" t="s">
         <v>284</v>
       </c>
+      <c r="C41" t="s">
+        <v>369</v>
+      </c>
       <c r="D41">
         <v>143</v>
       </c>
@@ -2628,13 +2880,13 @@
         <v>28122.38</v>
       </c>
       <c r="G41" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H41" t="s">
-        <v>363</v>
+        <v>437</v>
       </c>
       <c r="I41" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -2644,6 +2896,9 @@
       <c r="B42" t="s">
         <v>285</v>
       </c>
+      <c r="C42" t="s">
+        <v>370</v>
+      </c>
       <c r="D42">
         <v>21</v>
       </c>
@@ -2654,13 +2909,13 @@
         <v>42616.56</v>
       </c>
       <c r="G42" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H42" t="s">
-        <v>363</v>
+        <v>437</v>
       </c>
       <c r="I42" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -2670,6 +2925,9 @@
       <c r="B43" t="s">
         <v>286</v>
       </c>
+      <c r="C43" t="s">
+        <v>371</v>
+      </c>
       <c r="D43">
         <v>159</v>
       </c>
@@ -2680,13 +2938,13 @@
         <v>15900</v>
       </c>
       <c r="G43" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H43" t="s">
-        <v>363</v>
+        <v>437</v>
       </c>
       <c r="I43" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -2696,6 +2954,9 @@
       <c r="B44" t="s">
         <v>287</v>
       </c>
+      <c r="C44" t="s">
+        <v>372</v>
+      </c>
       <c r="D44">
         <v>72</v>
       </c>
@@ -2706,13 +2967,13 @@
         <v>7848</v>
       </c>
       <c r="G44" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H44" t="s">
-        <v>363</v>
+        <v>437</v>
       </c>
       <c r="I44" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -2722,6 +2983,9 @@
       <c r="B45" t="s">
         <v>288</v>
       </c>
+      <c r="C45" t="s">
+        <v>373</v>
+      </c>
       <c r="D45">
         <v>113</v>
       </c>
@@ -2732,13 +2996,13 @@
         <v>17683.37</v>
       </c>
       <c r="G45" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H45" t="s">
-        <v>363</v>
+        <v>437</v>
       </c>
       <c r="I45" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -2748,6 +3012,9 @@
       <c r="B46" t="s">
         <v>289</v>
       </c>
+      <c r="C46" t="s">
+        <v>374</v>
+      </c>
       <c r="D46">
         <v>22</v>
       </c>
@@ -2758,13 +3025,13 @@
         <v>21068.74</v>
       </c>
       <c r="G46" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H46" t="s">
-        <v>363</v>
+        <v>437</v>
       </c>
       <c r="I46" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -2774,6 +3041,9 @@
       <c r="B47" t="s">
         <v>290</v>
       </c>
+      <c r="C47" t="s">
+        <v>375</v>
+      </c>
       <c r="D47">
         <v>26</v>
       </c>
@@ -2784,13 +3054,13 @@
         <v>17290</v>
       </c>
       <c r="G47" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H47" t="s">
-        <v>363</v>
+        <v>437</v>
       </c>
       <c r="I47" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -2800,6 +3070,9 @@
       <c r="B48" t="s">
         <v>291</v>
       </c>
+      <c r="C48" t="s">
+        <v>376</v>
+      </c>
       <c r="D48">
         <v>28</v>
       </c>
@@ -2810,13 +3083,13 @@
         <v>22713.6</v>
       </c>
       <c r="G48" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H48" t="s">
-        <v>363</v>
+        <v>437</v>
       </c>
       <c r="I48" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -2826,6 +3099,9 @@
       <c r="B49" t="s">
         <v>292</v>
       </c>
+      <c r="C49" t="s">
+        <v>377</v>
+      </c>
       <c r="D49">
         <v>150</v>
       </c>
@@ -2836,13 +3112,13 @@
         <v>41899.5</v>
       </c>
       <c r="G49" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H49" t="s">
-        <v>363</v>
+        <v>437</v>
       </c>
       <c r="I49" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -2852,6 +3128,9 @@
       <c r="B50" t="s">
         <v>293</v>
       </c>
+      <c r="C50" t="s">
+        <v>378</v>
+      </c>
       <c r="D50">
         <v>30</v>
       </c>
@@ -2862,13 +3141,13 @@
         <v>70200</v>
       </c>
       <c r="G50" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H50" t="s">
-        <v>363</v>
+        <v>437</v>
       </c>
       <c r="I50" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -2878,6 +3157,9 @@
       <c r="B51" t="s">
         <v>294</v>
       </c>
+      <c r="C51" t="s">
+        <v>379</v>
+      </c>
       <c r="D51">
         <v>36</v>
       </c>
@@ -2888,13 +3170,13 @@
         <v>5958</v>
       </c>
       <c r="G51" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H51" t="s">
-        <v>363</v>
+        <v>437</v>
       </c>
       <c r="I51" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -2904,6 +3186,9 @@
       <c r="B52" t="s">
         <v>295</v>
       </c>
+      <c r="C52" t="s">
+        <v>380</v>
+      </c>
       <c r="D52">
         <v>49</v>
       </c>
@@ -2914,13 +3199,13 @@
         <v>48355.16</v>
       </c>
       <c r="G52" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H52" t="s">
-        <v>363</v>
+        <v>437</v>
       </c>
       <c r="I52" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -2930,6 +3215,9 @@
       <c r="B53" t="s">
         <v>296</v>
       </c>
+      <c r="C53" t="s">
+        <v>381</v>
+      </c>
       <c r="D53">
         <v>37</v>
       </c>
@@ -2940,13 +3228,13 @@
         <v>3885</v>
       </c>
       <c r="G53" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H53" t="s">
-        <v>363</v>
+        <v>437</v>
       </c>
       <c r="I53" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -2956,6 +3244,9 @@
       <c r="B54" t="s">
         <v>297</v>
       </c>
+      <c r="C54" t="s">
+        <v>382</v>
+      </c>
       <c r="D54">
         <v>66</v>
       </c>
@@ -2966,13 +3257,13 @@
         <v>10119.78</v>
       </c>
       <c r="G54" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H54" t="s">
-        <v>363</v>
+        <v>437</v>
       </c>
       <c r="I54" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -2982,6 +3273,9 @@
       <c r="B55" t="s">
         <v>298</v>
       </c>
+      <c r="C55" t="s">
+        <v>383</v>
+      </c>
       <c r="D55">
         <v>42</v>
       </c>
@@ -2992,13 +3286,13 @@
         <v>35700</v>
       </c>
       <c r="G55" t="s">
-        <v>361</v>
+        <v>435</v>
       </c>
       <c r="H55" t="s">
-        <v>363</v>
+        <v>437</v>
       </c>
       <c r="I55" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -3008,6 +3302,9 @@
       <c r="B56" t="s">
         <v>299</v>
       </c>
+      <c r="C56" t="s">
+        <v>384</v>
+      </c>
       <c r="D56">
         <v>19</v>
       </c>
@@ -3018,13 +3315,13 @@
         <v>49210</v>
       </c>
       <c r="G56" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H56" t="s">
-        <v>363</v>
+        <v>437</v>
       </c>
       <c r="I56" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -3034,6 +3331,9 @@
       <c r="B57" t="s">
         <v>300</v>
       </c>
+      <c r="C57" t="s">
+        <v>385</v>
+      </c>
       <c r="D57">
         <v>26</v>
       </c>
@@ -3044,13 +3344,13 @@
         <v>29396.64</v>
       </c>
       <c r="G57" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H57" t="s">
-        <v>363</v>
+        <v>437</v>
       </c>
       <c r="I57" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -3060,6 +3360,9 @@
       <c r="B58" t="s">
         <v>301</v>
       </c>
+      <c r="C58" t="s">
+        <v>386</v>
+      </c>
       <c r="D58">
         <v>36</v>
       </c>
@@ -3070,13 +3373,13 @@
         <v>170596.8</v>
       </c>
       <c r="G58" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H58" t="s">
-        <v>363</v>
+        <v>437</v>
       </c>
       <c r="I58" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -3086,6 +3389,9 @@
       <c r="B59" t="s">
         <v>302</v>
       </c>
+      <c r="C59" t="s">
+        <v>387</v>
+      </c>
       <c r="D59">
         <v>169</v>
       </c>
@@ -3096,13 +3402,13 @@
         <v>41208.96</v>
       </c>
       <c r="G59" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H59" t="s">
-        <v>363</v>
+        <v>437</v>
       </c>
       <c r="I59" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -3112,6 +3418,9 @@
       <c r="B60" t="s">
         <v>303</v>
       </c>
+      <c r="C60" t="s">
+        <v>388</v>
+      </c>
       <c r="D60">
         <v>19</v>
       </c>
@@ -3122,13 +3431,13 @@
         <v>274550</v>
       </c>
       <c r="G60" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H60" t="s">
-        <v>363</v>
+        <v>437</v>
       </c>
       <c r="I60" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -3138,6 +3447,9 @@
       <c r="B61" t="s">
         <v>304</v>
       </c>
+      <c r="C61" t="s">
+        <v>389</v>
+      </c>
       <c r="D61">
         <v>25</v>
       </c>
@@ -3148,13 +3460,13 @@
         <v>71267.5</v>
       </c>
       <c r="G61" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H61" t="s">
-        <v>363</v>
+        <v>437</v>
       </c>
       <c r="I61" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -3164,6 +3476,9 @@
       <c r="B62" t="s">
         <v>305</v>
       </c>
+      <c r="C62" t="s">
+        <v>390</v>
+      </c>
       <c r="D62">
         <v>23</v>
       </c>
@@ -3174,13 +3489,13 @@
         <v>69575</v>
       </c>
       <c r="G62" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H62" t="s">
-        <v>363</v>
+        <v>437</v>
       </c>
       <c r="I62" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -3190,6 +3505,9 @@
       <c r="B63" t="s">
         <v>306</v>
       </c>
+      <c r="C63" t="s">
+        <v>391</v>
+      </c>
       <c r="D63">
         <v>144</v>
       </c>
@@ -3200,13 +3518,13 @@
         <v>80899.2</v>
       </c>
       <c r="G63" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H63" t="s">
-        <v>363</v>
+        <v>437</v>
       </c>
       <c r="I63" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -3216,6 +3534,9 @@
       <c r="B64" t="s">
         <v>307</v>
       </c>
+      <c r="C64" t="s">
+        <v>392</v>
+      </c>
       <c r="D64">
         <v>17</v>
       </c>
@@ -3226,13 +3547,13 @@
         <v>19899.86</v>
       </c>
       <c r="G64" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H64" t="s">
-        <v>363</v>
+        <v>437</v>
       </c>
       <c r="I64" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -3242,6 +3563,9 @@
       <c r="B65" t="s">
         <v>308</v>
       </c>
+      <c r="C65" t="s">
+        <v>393</v>
+      </c>
       <c r="D65">
         <v>15</v>
       </c>
@@ -3252,13 +3576,13 @@
         <v>44514.15</v>
       </c>
       <c r="G65" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H65" t="s">
-        <v>363</v>
+        <v>437</v>
       </c>
       <c r="I65" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -3268,6 +3592,9 @@
       <c r="B66" t="s">
         <v>309</v>
       </c>
+      <c r="C66" t="s">
+        <v>394</v>
+      </c>
       <c r="D66">
         <v>12</v>
       </c>
@@ -3278,13 +3605,13 @@
         <v>9720</v>
       </c>
       <c r="G66" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H66" t="s">
-        <v>363</v>
+        <v>437</v>
       </c>
       <c r="I66" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -3294,6 +3621,9 @@
       <c r="B67" t="s">
         <v>310</v>
       </c>
+      <c r="C67" t="s">
+        <v>395</v>
+      </c>
       <c r="D67">
         <v>22</v>
       </c>
@@ -3304,13 +3634,13 @@
         <v>20845.22</v>
       </c>
       <c r="G67" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H67" t="s">
-        <v>363</v>
+        <v>437</v>
       </c>
       <c r="I67" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -3320,6 +3650,9 @@
       <c r="B68" t="s">
         <v>311</v>
       </c>
+      <c r="C68" t="s">
+        <v>396</v>
+      </c>
       <c r="D68">
         <v>6</v>
       </c>
@@ -3330,13 +3663,13 @@
         <v>6196.5</v>
       </c>
       <c r="G68" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H68" t="s">
-        <v>363</v>
+        <v>437</v>
       </c>
       <c r="I68" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -3346,6 +3679,9 @@
       <c r="B69" t="s">
         <v>312</v>
       </c>
+      <c r="C69" t="s">
+        <v>397</v>
+      </c>
       <c r="D69">
         <v>19</v>
       </c>
@@ -3356,13 +3692,13 @@
         <v>26884.81</v>
       </c>
       <c r="G69" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H69" t="s">
-        <v>363</v>
+        <v>437</v>
       </c>
       <c r="I69" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -3372,6 +3708,9 @@
       <c r="B70" t="s">
         <v>313</v>
       </c>
+      <c r="C70" t="s">
+        <v>398</v>
+      </c>
       <c r="D70">
         <v>11</v>
       </c>
@@ -3382,13 +3721,13 @@
         <v>4650.25</v>
       </c>
       <c r="G70" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H70" t="s">
-        <v>363</v>
+        <v>437</v>
       </c>
       <c r="I70" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -3398,6 +3737,9 @@
       <c r="B71" t="s">
         <v>314</v>
       </c>
+      <c r="C71" t="s">
+        <v>399</v>
+      </c>
       <c r="D71">
         <v>5</v>
       </c>
@@ -3408,13 +3750,13 @@
         <v>25916.9</v>
       </c>
       <c r="G71" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H71" t="s">
-        <v>363</v>
+        <v>437</v>
       </c>
       <c r="I71" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -3424,6 +3766,9 @@
       <c r="B72" t="s">
         <v>315</v>
       </c>
+      <c r="C72" t="s">
+        <v>400</v>
+      </c>
       <c r="D72">
         <v>22</v>
       </c>
@@ -3434,13 +3779,13 @@
         <v>10109</v>
       </c>
       <c r="G72" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H72" t="s">
-        <v>363</v>
+        <v>437</v>
       </c>
       <c r="I72" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -3450,6 +3795,9 @@
       <c r="B73" t="s">
         <v>307</v>
       </c>
+      <c r="C73" t="s">
+        <v>401</v>
+      </c>
       <c r="D73">
         <v>13</v>
       </c>
@@ -3460,13 +3808,13 @@
         <v>15217.54</v>
       </c>
       <c r="G73" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H73" t="s">
-        <v>363</v>
+        <v>437</v>
       </c>
       <c r="I73" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -3476,6 +3824,9 @@
       <c r="B74" t="s">
         <v>316</v>
       </c>
+      <c r="C74" t="s">
+        <v>402</v>
+      </c>
       <c r="D74">
         <v>6</v>
       </c>
@@ -3486,13 +3837,13 @@
         <v>4260</v>
       </c>
       <c r="G74" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H74" t="s">
-        <v>363</v>
+        <v>437</v>
       </c>
       <c r="I74" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -3502,6 +3853,9 @@
       <c r="B75" t="s">
         <v>317</v>
       </c>
+      <c r="C75" t="s">
+        <v>403</v>
+      </c>
       <c r="D75">
         <v>5</v>
       </c>
@@ -3512,13 +3866,13 @@
         <v>2455</v>
       </c>
       <c r="G75" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H75" t="s">
-        <v>363</v>
+        <v>437</v>
       </c>
       <c r="I75" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -3528,6 +3882,9 @@
       <c r="B76" t="s">
         <v>318</v>
       </c>
+      <c r="C76" t="s">
+        <v>404</v>
+      </c>
       <c r="D76">
         <v>12</v>
       </c>
@@ -3538,13 +3895,13 @@
         <v>30329.88</v>
       </c>
       <c r="G76" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H76" t="s">
-        <v>363</v>
+        <v>437</v>
       </c>
       <c r="I76" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -3554,6 +3911,9 @@
       <c r="B77" t="s">
         <v>319</v>
       </c>
+      <c r="C77" t="s">
+        <v>405</v>
+      </c>
       <c r="D77">
         <v>23</v>
       </c>
@@ -3564,13 +3924,13 @@
         <v>68268.37</v>
       </c>
       <c r="G77" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H77" t="s">
-        <v>363</v>
+        <v>437</v>
       </c>
       <c r="I77" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -3580,6 +3940,9 @@
       <c r="B78" t="s">
         <v>320</v>
       </c>
+      <c r="C78" t="s">
+        <v>406</v>
+      </c>
       <c r="D78">
         <v>15</v>
       </c>
@@ -3590,13 +3953,13 @@
         <v>22810.5</v>
       </c>
       <c r="G78" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H78" t="s">
-        <v>363</v>
+        <v>437</v>
       </c>
       <c r="I78" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -3606,6 +3969,9 @@
       <c r="B79" t="s">
         <v>321</v>
       </c>
+      <c r="C79" t="s">
+        <v>407</v>
+      </c>
       <c r="D79">
         <v>72</v>
       </c>
@@ -3616,13 +3982,13 @@
         <v>3638.88</v>
       </c>
       <c r="G79" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H79" t="s">
-        <v>363</v>
+        <v>437</v>
       </c>
       <c r="I79" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -3632,6 +3998,9 @@
       <c r="B80" t="s">
         <v>322</v>
       </c>
+      <c r="C80" t="s">
+        <v>408</v>
+      </c>
       <c r="D80">
         <v>46</v>
       </c>
@@ -3642,13 +4011,13 @@
         <v>155333.72</v>
       </c>
       <c r="G80" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H80" t="s">
-        <v>363</v>
+        <v>437</v>
       </c>
       <c r="I80" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -3658,6 +4027,9 @@
       <c r="B81" t="s">
         <v>323</v>
       </c>
+      <c r="C81" t="s">
+        <v>409</v>
+      </c>
       <c r="D81">
         <v>17</v>
       </c>
@@ -3668,13 +4040,13 @@
         <v>44662.74</v>
       </c>
       <c r="G81" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H81" t="s">
-        <v>363</v>
+        <v>437</v>
       </c>
       <c r="I81" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -3684,6 +4056,9 @@
       <c r="B82" t="s">
         <v>324</v>
       </c>
+      <c r="C82" t="s">
+        <v>410</v>
+      </c>
       <c r="D82">
         <v>16</v>
       </c>
@@ -3694,13 +4069,13 @@
         <v>38623.52</v>
       </c>
       <c r="G82" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H82" t="s">
-        <v>363</v>
+        <v>437</v>
       </c>
       <c r="I82" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -3710,6 +4085,9 @@
       <c r="B83" t="s">
         <v>325</v>
       </c>
+      <c r="C83" t="s">
+        <v>411</v>
+      </c>
       <c r="D83">
         <v>620</v>
       </c>
@@ -3720,13 +4098,13 @@
         <v>3596</v>
       </c>
       <c r="G83" t="s">
-        <v>362</v>
+        <v>436</v>
       </c>
       <c r="H83" t="s">
-        <v>363</v>
+        <v>437</v>
       </c>
       <c r="I83" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -3736,6 +4114,9 @@
       <c r="B84" t="s">
         <v>326</v>
       </c>
+      <c r="C84" t="s">
+        <v>412</v>
+      </c>
       <c r="D84">
         <v>73</v>
       </c>
@@ -3746,13 +4127,13 @@
         <v>29746.77</v>
       </c>
       <c r="G84" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H84" t="s">
-        <v>363</v>
+        <v>437</v>
       </c>
       <c r="I84" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -3762,6 +4143,9 @@
       <c r="B85" t="s">
         <v>327</v>
       </c>
+      <c r="C85" t="s">
+        <v>413</v>
+      </c>
       <c r="D85">
         <v>79</v>
       </c>
@@ -3772,13 +4156,13 @@
         <v>3728.8</v>
       </c>
       <c r="G85" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H85" t="s">
-        <v>363</v>
+        <v>437</v>
       </c>
       <c r="I85" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -3788,6 +4172,9 @@
       <c r="B86" t="s">
         <v>328</v>
       </c>
+      <c r="C86" t="s">
+        <v>414</v>
+      </c>
       <c r="D86">
         <v>128</v>
       </c>
@@ -3798,13 +4185,13 @@
         <v>54144</v>
       </c>
       <c r="G86" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H86" t="s">
-        <v>363</v>
+        <v>437</v>
       </c>
       <c r="I86" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -3814,6 +4201,9 @@
       <c r="B87" t="s">
         <v>329</v>
       </c>
+      <c r="C87" t="s">
+        <v>415</v>
+      </c>
       <c r="D87">
         <v>8</v>
       </c>
@@ -3824,13 +4214,13 @@
         <v>42657.52</v>
       </c>
       <c r="G87" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H87" t="s">
-        <v>363</v>
+        <v>437</v>
       </c>
       <c r="I87" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -3840,6 +4230,9 @@
       <c r="B88" t="s">
         <v>245</v>
       </c>
+      <c r="C88" t="s">
+        <v>330</v>
+      </c>
       <c r="D88">
         <v>15</v>
       </c>
@@ -3850,13 +4243,13 @@
         <v>12473.85</v>
       </c>
       <c r="G88" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H88" t="s">
-        <v>364</v>
+        <v>438</v>
       </c>
       <c r="I88" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -3866,6 +4259,9 @@
       <c r="B89" t="s">
         <v>246</v>
       </c>
+      <c r="C89" t="s">
+        <v>331</v>
+      </c>
       <c r="D89">
         <v>10</v>
       </c>
@@ -3873,16 +4269,16 @@
         <v>985.67</v>
       </c>
       <c r="F89">
-        <v>9856.699999999999</v>
+        <v>9856.700000000001</v>
       </c>
       <c r="G89" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H89" t="s">
-        <v>364</v>
+        <v>438</v>
       </c>
       <c r="I89" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -3892,6 +4288,9 @@
       <c r="B90" t="s">
         <v>247</v>
       </c>
+      <c r="C90" t="s">
+        <v>332</v>
+      </c>
       <c r="D90">
         <v>10</v>
       </c>
@@ -3902,13 +4301,13 @@
         <v>5944.700000000001</v>
       </c>
       <c r="G90" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H90" t="s">
-        <v>364</v>
+        <v>438</v>
       </c>
       <c r="I90" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -3918,6 +4317,9 @@
       <c r="B91" t="s">
         <v>248</v>
       </c>
+      <c r="C91" t="s">
+        <v>333</v>
+      </c>
       <c r="D91">
         <v>20</v>
       </c>
@@ -3928,13 +4330,13 @@
         <v>13145.4</v>
       </c>
       <c r="G91" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H91" t="s">
-        <v>364</v>
+        <v>438</v>
       </c>
       <c r="I91" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -3944,6 +4346,9 @@
       <c r="B92" t="s">
         <v>249</v>
       </c>
+      <c r="C92" t="s">
+        <v>334</v>
+      </c>
       <c r="D92">
         <v>20</v>
       </c>
@@ -3954,13 +4359,13 @@
         <v>19700</v>
       </c>
       <c r="G92" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H92" t="s">
-        <v>364</v>
+        <v>438</v>
       </c>
       <c r="I92" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -3970,6 +4375,9 @@
       <c r="B93" t="s">
         <v>250</v>
       </c>
+      <c r="C93" t="s">
+        <v>335</v>
+      </c>
       <c r="D93">
         <v>20</v>
       </c>
@@ -3980,13 +4388,13 @@
         <v>59543</v>
       </c>
       <c r="G93" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H93" t="s">
-        <v>364</v>
+        <v>438</v>
       </c>
       <c r="I93" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -3996,6 +4404,9 @@
       <c r="B94" t="s">
         <v>251</v>
       </c>
+      <c r="C94" t="s">
+        <v>336</v>
+      </c>
       <c r="D94">
         <v>5</v>
       </c>
@@ -4006,13 +4417,13 @@
         <v>2988.35</v>
       </c>
       <c r="G94" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H94" t="s">
-        <v>364</v>
+        <v>438</v>
       </c>
       <c r="I94" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -4022,6 +4433,9 @@
       <c r="B95" t="s">
         <v>252</v>
       </c>
+      <c r="C95" t="s">
+        <v>337</v>
+      </c>
       <c r="D95">
         <v>5</v>
       </c>
@@ -4032,13 +4446,13 @@
         <v>13416.4</v>
       </c>
       <c r="G95" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H95" t="s">
-        <v>364</v>
+        <v>438</v>
       </c>
       <c r="I95" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -4048,6 +4462,9 @@
       <c r="B96" t="s">
         <v>253</v>
       </c>
+      <c r="C96" t="s">
+        <v>338</v>
+      </c>
       <c r="D96">
         <v>10</v>
       </c>
@@ -4058,13 +4475,13 @@
         <v>2848.5</v>
       </c>
       <c r="G96" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H96" t="s">
-        <v>364</v>
+        <v>438</v>
       </c>
       <c r="I96" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -4074,6 +4491,9 @@
       <c r="B97" t="s">
         <v>254</v>
       </c>
+      <c r="C97" t="s">
+        <v>339</v>
+      </c>
       <c r="D97">
         <v>10</v>
       </c>
@@ -4084,13 +4504,13 @@
         <v>2955.1</v>
       </c>
       <c r="G97" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H97" t="s">
-        <v>364</v>
+        <v>438</v>
       </c>
       <c r="I97" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -4100,6 +4520,9 @@
       <c r="B98" t="s">
         <v>255</v>
       </c>
+      <c r="C98" t="s">
+        <v>340</v>
+      </c>
       <c r="D98">
         <v>50</v>
       </c>
@@ -4110,13 +4533,13 @@
         <v>8183</v>
       </c>
       <c r="G98" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H98" t="s">
-        <v>364</v>
+        <v>438</v>
       </c>
       <c r="I98" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -4126,6 +4549,9 @@
       <c r="B99" t="s">
         <v>256</v>
       </c>
+      <c r="C99" t="s">
+        <v>341</v>
+      </c>
       <c r="D99">
         <v>20</v>
       </c>
@@ -4136,13 +4562,13 @@
         <v>8973.200000000001</v>
       </c>
       <c r="G99" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H99" t="s">
-        <v>364</v>
+        <v>438</v>
       </c>
       <c r="I99" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -4152,6 +4578,9 @@
       <c r="B100" t="s">
         <v>257</v>
       </c>
+      <c r="C100" t="s">
+        <v>342</v>
+      </c>
       <c r="D100">
         <v>20</v>
       </c>
@@ -4162,13 +4591,13 @@
         <v>6452.4</v>
       </c>
       <c r="G100" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H100" t="s">
-        <v>364</v>
+        <v>438</v>
       </c>
       <c r="I100" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -4178,6 +4607,9 @@
       <c r="B101" t="s">
         <v>258</v>
       </c>
+      <c r="C101" t="s">
+        <v>343</v>
+      </c>
       <c r="D101">
         <v>15</v>
       </c>
@@ -4188,13 +4620,13 @@
         <v>45695.4</v>
       </c>
       <c r="G101" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H101" t="s">
-        <v>364</v>
+        <v>438</v>
       </c>
       <c r="I101" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -4204,6 +4636,9 @@
       <c r="B102" t="s">
         <v>259</v>
       </c>
+      <c r="C102" t="s">
+        <v>344</v>
+      </c>
       <c r="D102">
         <v>2</v>
       </c>
@@ -4214,13 +4649,13 @@
         <v>39923.4</v>
       </c>
       <c r="G102" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H102" t="s">
-        <v>364</v>
+        <v>438</v>
       </c>
       <c r="I102" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -4230,6 +4665,9 @@
       <c r="B103" t="s">
         <v>260</v>
       </c>
+      <c r="C103" t="s">
+        <v>345</v>
+      </c>
       <c r="D103">
         <v>10</v>
       </c>
@@ -4240,13 +4678,13 @@
         <v>4454.8</v>
       </c>
       <c r="G103" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H103" t="s">
-        <v>364</v>
+        <v>438</v>
       </c>
       <c r="I103" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -4256,6 +4694,9 @@
       <c r="B104" t="s">
         <v>261</v>
       </c>
+      <c r="C104" t="s">
+        <v>346</v>
+      </c>
       <c r="D104">
         <v>5</v>
       </c>
@@ -4266,13 +4707,13 @@
         <v>7453.9</v>
       </c>
       <c r="G104" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H104" t="s">
-        <v>364</v>
+        <v>438</v>
       </c>
       <c r="I104" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -4282,6 +4723,9 @@
       <c r="B105" t="s">
         <v>262</v>
       </c>
+      <c r="C105" t="s">
+        <v>347</v>
+      </c>
       <c r="D105">
         <v>2</v>
       </c>
@@ -4292,13 +4736,13 @@
         <v>1500.84</v>
       </c>
       <c r="G105" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H105" t="s">
-        <v>364</v>
+        <v>438</v>
       </c>
       <c r="I105" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -4308,6 +4752,9 @@
       <c r="B106" t="s">
         <v>263</v>
       </c>
+      <c r="C106" t="s">
+        <v>348</v>
+      </c>
       <c r="D106">
         <v>10</v>
       </c>
@@ -4318,13 +4765,13 @@
         <v>6690</v>
       </c>
       <c r="G106" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H106" t="s">
-        <v>364</v>
+        <v>438</v>
       </c>
       <c r="I106" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -4334,6 +4781,9 @@
       <c r="B107" t="s">
         <v>264</v>
       </c>
+      <c r="C107" t="s">
+        <v>349</v>
+      </c>
       <c r="D107">
         <v>7</v>
       </c>
@@ -4344,13 +4794,13 @@
         <v>28630</v>
       </c>
       <c r="G107" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H107" t="s">
-        <v>364</v>
+        <v>438</v>
       </c>
       <c r="I107" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -4360,6 +4810,9 @@
       <c r="B108" t="s">
         <v>265</v>
       </c>
+      <c r="C108" t="s">
+        <v>350</v>
+      </c>
       <c r="D108">
         <v>5</v>
       </c>
@@ -4370,13 +4823,13 @@
         <v>14955</v>
       </c>
       <c r="G108" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H108" t="s">
-        <v>364</v>
+        <v>438</v>
       </c>
       <c r="I108" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -4386,6 +4839,9 @@
       <c r="B109" t="s">
         <v>266</v>
       </c>
+      <c r="C109" t="s">
+        <v>351</v>
+      </c>
       <c r="D109">
         <v>5</v>
       </c>
@@ -4396,13 +4852,13 @@
         <v>3732.9</v>
       </c>
       <c r="G109" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H109" t="s">
-        <v>364</v>
+        <v>438</v>
       </c>
       <c r="I109" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -4412,6 +4868,9 @@
       <c r="B110" t="s">
         <v>267</v>
       </c>
+      <c r="C110" t="s">
+        <v>352</v>
+      </c>
       <c r="D110">
         <v>35</v>
       </c>
@@ -4422,13 +4881,13 @@
         <v>49790.64999999999</v>
       </c>
       <c r="G110" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H110" t="s">
-        <v>364</v>
+        <v>438</v>
       </c>
       <c r="I110" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -4438,6 +4897,9 @@
       <c r="B111" t="s">
         <v>268</v>
       </c>
+      <c r="C111" t="s">
+        <v>353</v>
+      </c>
       <c r="D111">
         <v>3</v>
       </c>
@@ -4448,13 +4910,13 @@
         <v>776.4300000000001</v>
       </c>
       <c r="G111" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H111" t="s">
-        <v>364</v>
+        <v>438</v>
       </c>
       <c r="I111" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -4464,6 +4926,9 @@
       <c r="B112" t="s">
         <v>269</v>
       </c>
+      <c r="C112" t="s">
+        <v>354</v>
+      </c>
       <c r="D112">
         <v>40</v>
       </c>
@@ -4474,13 +4939,13 @@
         <v>2840</v>
       </c>
       <c r="G112" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H112" t="s">
-        <v>364</v>
+        <v>438</v>
       </c>
       <c r="I112" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -4490,6 +4955,9 @@
       <c r="B113" t="s">
         <v>270</v>
       </c>
+      <c r="C113" t="s">
+        <v>355</v>
+      </c>
       <c r="D113">
         <v>18</v>
       </c>
@@ -4500,13 +4968,13 @@
         <v>6822</v>
       </c>
       <c r="G113" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H113" t="s">
-        <v>364</v>
+        <v>438</v>
       </c>
       <c r="I113" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="114" spans="1:9">
@@ -4516,6 +4984,9 @@
       <c r="B114" t="s">
         <v>271</v>
       </c>
+      <c r="C114" t="s">
+        <v>356</v>
+      </c>
       <c r="D114">
         <v>7</v>
       </c>
@@ -4526,13 +4997,13 @@
         <v>25410</v>
       </c>
       <c r="G114" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H114" t="s">
-        <v>364</v>
+        <v>438</v>
       </c>
       <c r="I114" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="115" spans="1:9">
@@ -4542,6 +5013,9 @@
       <c r="B115" t="s">
         <v>272</v>
       </c>
+      <c r="C115" t="s">
+        <v>357</v>
+      </c>
       <c r="D115">
         <v>5</v>
       </c>
@@ -4552,13 +5026,13 @@
         <v>1978.3</v>
       </c>
       <c r="G115" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H115" t="s">
-        <v>364</v>
+        <v>438</v>
       </c>
       <c r="I115" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -4568,6 +5042,9 @@
       <c r="B116" t="s">
         <v>273</v>
       </c>
+      <c r="C116" t="s">
+        <v>358</v>
+      </c>
       <c r="D116">
         <v>2</v>
       </c>
@@ -4578,13 +5055,13 @@
         <v>31000</v>
       </c>
       <c r="G116" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H116" t="s">
-        <v>364</v>
+        <v>438</v>
       </c>
       <c r="I116" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="117" spans="1:9">
@@ -4594,6 +5071,9 @@
       <c r="B117" t="s">
         <v>274</v>
       </c>
+      <c r="C117" t="s">
+        <v>359</v>
+      </c>
       <c r="D117">
         <v>5</v>
       </c>
@@ -4604,13 +5084,13 @@
         <v>5275</v>
       </c>
       <c r="G117" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H117" t="s">
-        <v>364</v>
+        <v>438</v>
       </c>
       <c r="I117" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="118" spans="1:9">
@@ -4620,6 +5100,9 @@
       <c r="B118" t="s">
         <v>275</v>
       </c>
+      <c r="C118" t="s">
+        <v>360</v>
+      </c>
       <c r="D118">
         <v>15</v>
       </c>
@@ -4630,13 +5113,13 @@
         <v>4154.700000000001</v>
       </c>
       <c r="G118" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H118" t="s">
-        <v>364</v>
+        <v>438</v>
       </c>
       <c r="I118" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="119" spans="1:9">
@@ -4646,6 +5129,9 @@
       <c r="B119" t="s">
         <v>276</v>
       </c>
+      <c r="C119" t="s">
+        <v>361</v>
+      </c>
       <c r="D119">
         <v>5</v>
       </c>
@@ -4656,13 +5142,13 @@
         <v>4450</v>
       </c>
       <c r="G119" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H119" t="s">
-        <v>364</v>
+        <v>438</v>
       </c>
       <c r="I119" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="120" spans="1:9">
@@ -4672,6 +5158,9 @@
       <c r="B120" t="s">
         <v>277</v>
       </c>
+      <c r="C120" t="s">
+        <v>362</v>
+      </c>
       <c r="D120">
         <v>5</v>
       </c>
@@ -4682,13 +5171,13 @@
         <v>4408.3</v>
       </c>
       <c r="G120" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H120" t="s">
-        <v>364</v>
+        <v>438</v>
       </c>
       <c r="I120" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="121" spans="1:9">
@@ -4698,6 +5187,9 @@
       <c r="B121" t="s">
         <v>278</v>
       </c>
+      <c r="C121" t="s">
+        <v>363</v>
+      </c>
       <c r="D121">
         <v>20</v>
       </c>
@@ -4708,13 +5200,13 @@
         <v>7880</v>
       </c>
       <c r="G121" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H121" t="s">
-        <v>364</v>
+        <v>438</v>
       </c>
       <c r="I121" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="122" spans="1:9">
@@ -4724,6 +5216,9 @@
       <c r="B122" t="s">
         <v>279</v>
       </c>
+      <c r="C122" t="s">
+        <v>364</v>
+      </c>
       <c r="D122">
         <v>10</v>
       </c>
@@ -4734,13 +5229,13 @@
         <v>7237.5</v>
       </c>
       <c r="G122" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H122" t="s">
-        <v>364</v>
+        <v>438</v>
       </c>
       <c r="I122" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="123" spans="1:9">
@@ -4750,6 +5245,9 @@
       <c r="B123" t="s">
         <v>280</v>
       </c>
+      <c r="C123" t="s">
+        <v>365</v>
+      </c>
       <c r="D123">
         <v>2</v>
       </c>
@@ -4760,13 +5258,13 @@
         <v>7267.68</v>
       </c>
       <c r="G123" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H123" t="s">
-        <v>364</v>
+        <v>438</v>
       </c>
       <c r="I123" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="124" spans="1:9">
@@ -4776,6 +5274,9 @@
       <c r="B124" t="s">
         <v>281</v>
       </c>
+      <c r="C124" t="s">
+        <v>366</v>
+      </c>
       <c r="D124">
         <v>20</v>
       </c>
@@ -4786,13 +5287,13 @@
         <v>78000</v>
       </c>
       <c r="G124" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H124" t="s">
-        <v>364</v>
+        <v>438</v>
       </c>
       <c r="I124" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="125" spans="1:9">
@@ -4802,6 +5303,9 @@
       <c r="B125" t="s">
         <v>282</v>
       </c>
+      <c r="C125" t="s">
+        <v>367</v>
+      </c>
       <c r="D125">
         <v>10</v>
       </c>
@@ -4812,13 +5316,13 @@
         <v>8400</v>
       </c>
       <c r="G125" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H125" t="s">
-        <v>364</v>
+        <v>438</v>
       </c>
       <c r="I125" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="126" spans="1:9">
@@ -4828,6 +5332,9 @@
       <c r="B126" t="s">
         <v>283</v>
       </c>
+      <c r="C126" t="s">
+        <v>368</v>
+      </c>
       <c r="D126">
         <v>15</v>
       </c>
@@ -4838,13 +5345,13 @@
         <v>20591.4</v>
       </c>
       <c r="G126" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H126" t="s">
-        <v>364</v>
+        <v>438</v>
       </c>
       <c r="I126" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="127" spans="1:9">
@@ -4854,6 +5361,9 @@
       <c r="B127" t="s">
         <v>284</v>
       </c>
+      <c r="C127" t="s">
+        <v>369</v>
+      </c>
       <c r="D127">
         <v>50</v>
       </c>
@@ -4864,13 +5374,13 @@
         <v>9833</v>
       </c>
       <c r="G127" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H127" t="s">
-        <v>364</v>
+        <v>438</v>
       </c>
       <c r="I127" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="128" spans="1:9">
@@ -4880,6 +5390,9 @@
       <c r="B128" t="s">
         <v>285</v>
       </c>
+      <c r="C128" t="s">
+        <v>370</v>
+      </c>
       <c r="D128">
         <v>5</v>
       </c>
@@ -4890,13 +5403,13 @@
         <v>9794.85</v>
       </c>
       <c r="G128" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H128" t="s">
-        <v>364</v>
+        <v>438</v>
       </c>
       <c r="I128" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="129" spans="1:9">
@@ -4906,6 +5419,9 @@
       <c r="B129" t="s">
         <v>286</v>
       </c>
+      <c r="C129" t="s">
+        <v>371</v>
+      </c>
       <c r="D129">
         <v>10</v>
       </c>
@@ -4916,13 +5432,13 @@
         <v>1000</v>
       </c>
       <c r="G129" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H129" t="s">
-        <v>364</v>
+        <v>438</v>
       </c>
       <c r="I129" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="130" spans="1:9">
@@ -4932,6 +5448,9 @@
       <c r="B130" t="s">
         <v>287</v>
       </c>
+      <c r="C130" t="s">
+        <v>372</v>
+      </c>
       <c r="D130">
         <v>15</v>
       </c>
@@ -4942,13 +5461,13 @@
         <v>1635</v>
       </c>
       <c r="G130" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H130" t="s">
-        <v>364</v>
+        <v>438</v>
       </c>
       <c r="I130" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="131" spans="1:9">
@@ -4958,6 +5477,9 @@
       <c r="B131" t="s">
         <v>288</v>
       </c>
+      <c r="C131" t="s">
+        <v>373</v>
+      </c>
       <c r="D131">
         <v>60</v>
       </c>
@@ -4965,16 +5487,16 @@
         <v>156.49</v>
       </c>
       <c r="F131">
-        <v>9389.400000000001</v>
+        <v>9389.4</v>
       </c>
       <c r="G131" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H131" t="s">
-        <v>364</v>
+        <v>438</v>
       </c>
       <c r="I131" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="132" spans="1:9">
@@ -4984,6 +5506,9 @@
       <c r="B132" t="s">
         <v>289</v>
       </c>
+      <c r="C132" t="s">
+        <v>374</v>
+      </c>
       <c r="D132">
         <v>5</v>
       </c>
@@ -4994,13 +5519,13 @@
         <v>4788.349999999999</v>
       </c>
       <c r="G132" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H132" t="s">
-        <v>364</v>
+        <v>438</v>
       </c>
       <c r="I132" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="133" spans="1:9">
@@ -5010,6 +5535,9 @@
       <c r="B133" t="s">
         <v>290</v>
       </c>
+      <c r="C133" t="s">
+        <v>375</v>
+      </c>
       <c r="D133">
         <v>5</v>
       </c>
@@ -5020,13 +5548,13 @@
         <v>3325</v>
       </c>
       <c r="G133" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H133" t="s">
-        <v>364</v>
+        <v>438</v>
       </c>
       <c r="I133" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="134" spans="1:9">
@@ -5036,6 +5564,9 @@
       <c r="B134" t="s">
         <v>291</v>
       </c>
+      <c r="C134" t="s">
+        <v>376</v>
+      </c>
       <c r="D134">
         <v>5</v>
       </c>
@@ -5046,13 +5577,13 @@
         <v>4056</v>
       </c>
       <c r="G134" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H134" t="s">
-        <v>364</v>
+        <v>438</v>
       </c>
       <c r="I134" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="135" spans="1:9">
@@ -5062,6 +5593,9 @@
       <c r="B135" t="s">
         <v>292</v>
       </c>
+      <c r="C135" t="s">
+        <v>377</v>
+      </c>
       <c r="D135">
         <v>50</v>
       </c>
@@ -5072,13 +5606,13 @@
         <v>13966.5</v>
       </c>
       <c r="G135" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H135" t="s">
-        <v>364</v>
+        <v>438</v>
       </c>
       <c r="I135" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="136" spans="1:9">
@@ -5088,6 +5622,9 @@
       <c r="B136" t="s">
         <v>293</v>
       </c>
+      <c r="C136" t="s">
+        <v>378</v>
+      </c>
       <c r="D136">
         <v>1</v>
       </c>
@@ -5098,13 +5635,13 @@
         <v>2340</v>
       </c>
       <c r="G136" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H136" t="s">
-        <v>364</v>
+        <v>438</v>
       </c>
       <c r="I136" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="137" spans="1:9">
@@ -5114,6 +5651,9 @@
       <c r="B137" t="s">
         <v>294</v>
       </c>
+      <c r="C137" t="s">
+        <v>379</v>
+      </c>
       <c r="D137">
         <v>1</v>
       </c>
@@ -5124,13 +5664,13 @@
         <v>165.5</v>
       </c>
       <c r="G137" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H137" t="s">
-        <v>364</v>
+        <v>438</v>
       </c>
       <c r="I137" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="138" spans="1:9">
@@ -5140,6 +5680,9 @@
       <c r="B138" t="s">
         <v>295</v>
       </c>
+      <c r="C138" t="s">
+        <v>380</v>
+      </c>
       <c r="D138">
         <v>10</v>
       </c>
@@ -5150,13 +5693,13 @@
         <v>9868.4</v>
       </c>
       <c r="G138" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H138" t="s">
-        <v>364</v>
+        <v>438</v>
       </c>
       <c r="I138" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="139" spans="1:9">
@@ -5166,6 +5709,9 @@
       <c r="B139" t="s">
         <v>296</v>
       </c>
+      <c r="C139" t="s">
+        <v>381</v>
+      </c>
       <c r="D139">
         <v>5</v>
       </c>
@@ -5176,13 +5722,13 @@
         <v>525</v>
       </c>
       <c r="G139" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H139" t="s">
-        <v>364</v>
+        <v>438</v>
       </c>
       <c r="I139" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="140" spans="1:9">
@@ -5192,6 +5738,9 @@
       <c r="B140" t="s">
         <v>297</v>
       </c>
+      <c r="C140" t="s">
+        <v>382</v>
+      </c>
       <c r="D140">
         <v>5</v>
       </c>
@@ -5202,13 +5751,13 @@
         <v>766.6500000000001</v>
       </c>
       <c r="G140" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H140" t="s">
-        <v>364</v>
+        <v>438</v>
       </c>
       <c r="I140" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="141" spans="1:9">
@@ -5218,6 +5767,9 @@
       <c r="B141" t="s">
         <v>298</v>
       </c>
+      <c r="C141" t="s">
+        <v>383</v>
+      </c>
       <c r="D141">
         <v>11</v>
       </c>
@@ -5228,13 +5780,13 @@
         <v>9350</v>
       </c>
       <c r="G141" t="s">
-        <v>361</v>
+        <v>435</v>
       </c>
       <c r="H141" t="s">
-        <v>364</v>
+        <v>438</v>
       </c>
       <c r="I141" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="142" spans="1:9">
@@ -5244,6 +5796,9 @@
       <c r="B142" t="s">
         <v>299</v>
       </c>
+      <c r="C142" t="s">
+        <v>384</v>
+      </c>
       <c r="D142">
         <v>5</v>
       </c>
@@ -5254,13 +5809,13 @@
         <v>12950</v>
       </c>
       <c r="G142" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H142" t="s">
-        <v>364</v>
+        <v>438</v>
       </c>
       <c r="I142" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="143" spans="1:9">
@@ -5270,6 +5825,9 @@
       <c r="B143" t="s">
         <v>300</v>
       </c>
+      <c r="C143" t="s">
+        <v>385</v>
+      </c>
       <c r="D143">
         <v>5</v>
       </c>
@@ -5280,13 +5838,13 @@
         <v>5658.200000000001</v>
       </c>
       <c r="G143" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H143" t="s">
-        <v>364</v>
+        <v>438</v>
       </c>
       <c r="I143" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="144" spans="1:9">
@@ -5296,6 +5854,9 @@
       <c r="B144" t="s">
         <v>301</v>
       </c>
+      <c r="C144" t="s">
+        <v>386</v>
+      </c>
       <c r="D144">
         <v>5</v>
       </c>
@@ -5306,13 +5867,13 @@
         <v>23694</v>
       </c>
       <c r="G144" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H144" t="s">
-        <v>364</v>
+        <v>438</v>
       </c>
       <c r="I144" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="145" spans="1:9">
@@ -5322,6 +5883,9 @@
       <c r="B145" t="s">
         <v>302</v>
       </c>
+      <c r="C145" t="s">
+        <v>387</v>
+      </c>
       <c r="D145">
         <v>10</v>
       </c>
@@ -5332,13 +5896,13 @@
         <v>2431.9</v>
       </c>
       <c r="G145" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H145" t="s">
-        <v>364</v>
+        <v>438</v>
       </c>
       <c r="I145" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="146" spans="1:9">
@@ -5348,6 +5912,9 @@
       <c r="B146" t="s">
         <v>303</v>
       </c>
+      <c r="C146" t="s">
+        <v>388</v>
+      </c>
       <c r="D146">
         <v>2</v>
       </c>
@@ -5358,13 +5925,13 @@
         <v>28900</v>
       </c>
       <c r="G146" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H146" t="s">
-        <v>364</v>
+        <v>438</v>
       </c>
       <c r="I146" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="147" spans="1:9">
@@ -5374,6 +5941,9 @@
       <c r="B147" t="s">
         <v>304</v>
       </c>
+      <c r="C147" t="s">
+        <v>416</v>
+      </c>
       <c r="D147">
         <v>5</v>
       </c>
@@ -5384,13 +5954,13 @@
         <v>14253.5</v>
       </c>
       <c r="G147" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H147" t="s">
-        <v>364</v>
+        <v>438</v>
       </c>
       <c r="I147" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="148" spans="1:9">
@@ -5400,6 +5970,9 @@
       <c r="B148" t="s">
         <v>305</v>
       </c>
+      <c r="C148" t="s">
+        <v>417</v>
+      </c>
       <c r="D148">
         <v>5</v>
       </c>
@@ -5410,13 +5983,13 @@
         <v>15125</v>
       </c>
       <c r="G148" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H148" t="s">
-        <v>364</v>
+        <v>438</v>
       </c>
       <c r="I148" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="149" spans="1:9">
@@ -5426,6 +5999,9 @@
       <c r="B149" t="s">
         <v>306</v>
       </c>
+      <c r="C149" t="s">
+        <v>391</v>
+      </c>
       <c r="D149">
         <v>15</v>
       </c>
@@ -5436,13 +6012,13 @@
         <v>8427</v>
       </c>
       <c r="G149" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H149" t="s">
-        <v>364</v>
+        <v>438</v>
       </c>
       <c r="I149" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="150" spans="1:9">
@@ -5452,6 +6028,9 @@
       <c r="B150" t="s">
         <v>307</v>
       </c>
+      <c r="C150" t="s">
+        <v>418</v>
+      </c>
       <c r="D150">
         <v>7</v>
       </c>
@@ -5462,13 +6041,13 @@
         <v>8194.059999999999</v>
       </c>
       <c r="G150" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H150" t="s">
-        <v>364</v>
+        <v>438</v>
       </c>
       <c r="I150" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="151" spans="1:9">
@@ -5478,6 +6057,9 @@
       <c r="B151" t="s">
         <v>308</v>
       </c>
+      <c r="C151" t="s">
+        <v>393</v>
+      </c>
       <c r="D151">
         <v>7</v>
       </c>
@@ -5488,13 +6070,13 @@
         <v>20773.27</v>
       </c>
       <c r="G151" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H151" t="s">
-        <v>364</v>
+        <v>438</v>
       </c>
       <c r="I151" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="152" spans="1:9">
@@ -5504,6 +6086,9 @@
       <c r="B152" t="s">
         <v>309</v>
       </c>
+      <c r="C152" t="s">
+        <v>419</v>
+      </c>
       <c r="D152">
         <v>6</v>
       </c>
@@ -5514,13 +6099,13 @@
         <v>4860</v>
       </c>
       <c r="G152" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H152" t="s">
-        <v>364</v>
+        <v>438</v>
       </c>
       <c r="I152" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="153" spans="1:9">
@@ -5530,6 +6115,9 @@
       <c r="B153" t="s">
         <v>310</v>
       </c>
+      <c r="C153" t="s">
+        <v>420</v>
+      </c>
       <c r="D153">
         <v>5</v>
       </c>
@@ -5540,13 +6128,13 @@
         <v>4737.55</v>
       </c>
       <c r="G153" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H153" t="s">
-        <v>364</v>
+        <v>438</v>
       </c>
       <c r="I153" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="154" spans="1:9">
@@ -5556,6 +6144,9 @@
       <c r="B154" t="s">
         <v>311</v>
       </c>
+      <c r="C154" t="s">
+        <v>421</v>
+      </c>
       <c r="D154">
         <v>5</v>
       </c>
@@ -5566,13 +6157,13 @@
         <v>5163.75</v>
       </c>
       <c r="G154" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H154" t="s">
-        <v>364</v>
+        <v>438</v>
       </c>
       <c r="I154" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="155" spans="1:9">
@@ -5582,6 +6173,9 @@
       <c r="B155" t="s">
         <v>312</v>
       </c>
+      <c r="C155" t="s">
+        <v>422</v>
+      </c>
       <c r="D155">
         <v>7</v>
       </c>
@@ -5592,13 +6186,13 @@
         <v>9904.93</v>
       </c>
       <c r="G155" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H155" t="s">
-        <v>364</v>
+        <v>438</v>
       </c>
       <c r="I155" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="156" spans="1:9">
@@ -5608,6 +6202,9 @@
       <c r="B156" t="s">
         <v>313</v>
       </c>
+      <c r="C156" t="s">
+        <v>398</v>
+      </c>
       <c r="D156">
         <v>5</v>
       </c>
@@ -5618,13 +6215,13 @@
         <v>2128.75</v>
       </c>
       <c r="G156" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H156" t="s">
-        <v>364</v>
+        <v>438</v>
       </c>
       <c r="I156" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="157" spans="1:9">
@@ -5634,6 +6231,9 @@
       <c r="B157" t="s">
         <v>314</v>
       </c>
+      <c r="C157" t="s">
+        <v>399</v>
+      </c>
       <c r="D157">
         <v>1</v>
       </c>
@@ -5644,13 +6244,13 @@
         <v>5183.38</v>
       </c>
       <c r="G157" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H157" t="s">
-        <v>364</v>
+        <v>438</v>
       </c>
       <c r="I157" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="158" spans="1:9">
@@ -5660,6 +6260,9 @@
       <c r="B158" t="s">
         <v>315</v>
       </c>
+      <c r="C158" t="s">
+        <v>423</v>
+      </c>
       <c r="D158">
         <v>6</v>
       </c>
@@ -5670,13 +6273,13 @@
         <v>2757</v>
       </c>
       <c r="G158" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H158" t="s">
-        <v>364</v>
+        <v>438</v>
       </c>
       <c r="I158" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="159" spans="1:9">
@@ -5686,6 +6289,9 @@
       <c r="B159" t="s">
         <v>307</v>
       </c>
+      <c r="C159" t="s">
+        <v>401</v>
+      </c>
       <c r="D159">
         <v>6</v>
       </c>
@@ -5696,13 +6302,13 @@
         <v>7023.48</v>
       </c>
       <c r="G159" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H159" t="s">
-        <v>364</v>
+        <v>438</v>
       </c>
       <c r="I159" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="160" spans="1:9">
@@ -5712,6 +6318,9 @@
       <c r="B160" t="s">
         <v>316</v>
       </c>
+      <c r="C160" t="s">
+        <v>424</v>
+      </c>
       <c r="D160">
         <v>6</v>
       </c>
@@ -5722,13 +6331,13 @@
         <v>4260</v>
       </c>
       <c r="G160" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H160" t="s">
-        <v>364</v>
+        <v>438</v>
       </c>
       <c r="I160" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="161" spans="1:9">
@@ -5738,6 +6347,9 @@
       <c r="B161" t="s">
         <v>317</v>
       </c>
+      <c r="C161" t="s">
+        <v>403</v>
+      </c>
       <c r="D161">
         <v>6</v>
       </c>
@@ -5748,13 +6360,13 @@
         <v>2946</v>
       </c>
       <c r="G161" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H161" t="s">
-        <v>364</v>
+        <v>438</v>
       </c>
       <c r="I161" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="162" spans="1:9">
@@ -5764,6 +6376,9 @@
       <c r="B162" t="s">
         <v>318</v>
       </c>
+      <c r="C162" t="s">
+        <v>404</v>
+      </c>
       <c r="D162">
         <v>6</v>
       </c>
@@ -5774,13 +6389,13 @@
         <v>15164.94</v>
       </c>
       <c r="G162" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H162" t="s">
-        <v>364</v>
+        <v>438</v>
       </c>
       <c r="I162" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="163" spans="1:9">
@@ -5790,6 +6405,9 @@
       <c r="B163" t="s">
         <v>319</v>
       </c>
+      <c r="C163" t="s">
+        <v>405</v>
+      </c>
       <c r="D163">
         <v>7</v>
       </c>
@@ -5800,13 +6418,13 @@
         <v>18887.33</v>
       </c>
       <c r="G163" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H163" t="s">
-        <v>364</v>
+        <v>438</v>
       </c>
       <c r="I163" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="164" spans="1:9">
@@ -5816,6 +6434,9 @@
       <c r="B164" t="s">
         <v>320</v>
       </c>
+      <c r="C164" t="s">
+        <v>406</v>
+      </c>
       <c r="D164">
         <v>6</v>
       </c>
@@ -5826,13 +6447,13 @@
         <v>9124.200000000001</v>
       </c>
       <c r="G164" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H164" t="s">
-        <v>364</v>
+        <v>438</v>
       </c>
       <c r="I164" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="165" spans="1:9">
@@ -5842,6 +6463,9 @@
       <c r="B165" t="s">
         <v>321</v>
       </c>
+      <c r="C165" t="s">
+        <v>407</v>
+      </c>
       <c r="D165">
         <v>7</v>
       </c>
@@ -5852,13 +6476,13 @@
         <v>353.78</v>
       </c>
       <c r="G165" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H165" t="s">
-        <v>364</v>
+        <v>438</v>
       </c>
       <c r="I165" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="166" spans="1:9">
@@ -5868,6 +6492,9 @@
       <c r="B166" t="s">
         <v>322</v>
       </c>
+      <c r="C166" t="s">
+        <v>408</v>
+      </c>
       <c r="D166">
         <v>5</v>
       </c>
@@ -5878,13 +6505,13 @@
         <v>16884.1</v>
       </c>
       <c r="G166" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H166" t="s">
-        <v>364</v>
+        <v>438</v>
       </c>
       <c r="I166" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="167" spans="1:9">
@@ -5894,6 +6521,9 @@
       <c r="B167" t="s">
         <v>323</v>
       </c>
+      <c r="C167" t="s">
+        <v>409</v>
+      </c>
       <c r="D167">
         <v>5</v>
       </c>
@@ -5904,13 +6534,13 @@
         <v>13136.1</v>
       </c>
       <c r="G167" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H167" t="s">
-        <v>364</v>
+        <v>438</v>
       </c>
       <c r="I167" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="168" spans="1:9">
@@ -5920,6 +6550,9 @@
       <c r="B168" t="s">
         <v>324</v>
       </c>
+      <c r="C168" t="s">
+        <v>425</v>
+      </c>
       <c r="D168">
         <v>7</v>
       </c>
@@ -5930,13 +6563,13 @@
         <v>16897.79</v>
       </c>
       <c r="G168" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H168" t="s">
-        <v>364</v>
+        <v>438</v>
       </c>
       <c r="I168" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="169" spans="1:9">
@@ -5946,6 +6579,9 @@
       <c r="B169" t="s">
         <v>325</v>
       </c>
+      <c r="C169" t="s">
+        <v>411</v>
+      </c>
       <c r="D169">
         <v>500</v>
       </c>
@@ -5956,13 +6592,13 @@
         <v>2895</v>
       </c>
       <c r="G169" t="s">
-        <v>362</v>
+        <v>436</v>
       </c>
       <c r="H169" t="s">
-        <v>364</v>
+        <v>438</v>
       </c>
       <c r="I169" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="170" spans="1:9">
@@ -5972,6 +6608,9 @@
       <c r="B170" t="s">
         <v>326</v>
       </c>
+      <c r="C170" t="s">
+        <v>412</v>
+      </c>
       <c r="D170">
         <v>7</v>
       </c>
@@ -5982,13 +6621,13 @@
         <v>2852.43</v>
       </c>
       <c r="G170" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H170" t="s">
-        <v>364</v>
+        <v>438</v>
       </c>
       <c r="I170" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="171" spans="1:9">
@@ -5998,6 +6637,9 @@
       <c r="B171" t="s">
         <v>327</v>
       </c>
+      <c r="C171" t="s">
+        <v>413</v>
+      </c>
       <c r="D171">
         <v>5</v>
       </c>
@@ -6008,13 +6650,13 @@
         <v>236</v>
       </c>
       <c r="G171" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H171" t="s">
-        <v>364</v>
+        <v>438</v>
       </c>
       <c r="I171" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="172" spans="1:9">
@@ -6024,6 +6666,9 @@
       <c r="B172" t="s">
         <v>328</v>
       </c>
+      <c r="C172" t="s">
+        <v>414</v>
+      </c>
       <c r="D172">
         <v>30</v>
       </c>
@@ -6034,13 +6679,13 @@
         <v>12690</v>
       </c>
       <c r="G172" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H172" t="s">
-        <v>364</v>
+        <v>438</v>
       </c>
       <c r="I172" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="173" spans="1:9">
@@ -6050,6 +6695,9 @@
       <c r="B173" t="s">
         <v>329</v>
       </c>
+      <c r="C173" t="s">
+        <v>415</v>
+      </c>
       <c r="D173">
         <v>5</v>
       </c>
@@ -6060,13 +6708,13 @@
         <v>26885.75</v>
       </c>
       <c r="G173" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H173" t="s">
-        <v>364</v>
+        <v>438</v>
       </c>
       <c r="I173" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="174" spans="1:9">
@@ -6076,6 +6724,9 @@
       <c r="B174" t="s">
         <v>245</v>
       </c>
+      <c r="C174" t="s">
+        <v>330</v>
+      </c>
       <c r="D174">
         <v>2</v>
       </c>
@@ -6086,13 +6737,13 @@
         <v>1663.18</v>
       </c>
       <c r="G174" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H174" t="s">
-        <v>365</v>
+        <v>439</v>
       </c>
       <c r="I174" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="175" spans="1:9">
@@ -6102,6 +6753,9 @@
       <c r="B175" t="s">
         <v>246</v>
       </c>
+      <c r="C175" t="s">
+        <v>331</v>
+      </c>
       <c r="D175">
         <v>2</v>
       </c>
@@ -6112,13 +6766,13 @@
         <v>1971.32</v>
       </c>
       <c r="G175" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H175" t="s">
-        <v>365</v>
+        <v>439</v>
       </c>
       <c r="I175" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="176" spans="1:9">
@@ -6128,6 +6782,9 @@
       <c r="B176" t="s">
         <v>247</v>
       </c>
+      <c r="C176" t="s">
+        <v>332</v>
+      </c>
       <c r="D176">
         <v>2</v>
       </c>
@@ -6138,13 +6795,13 @@
         <v>1188.94</v>
       </c>
       <c r="G176" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H176" t="s">
-        <v>365</v>
+        <v>439</v>
       </c>
       <c r="I176" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="177" spans="1:9">
@@ -6154,6 +6811,9 @@
       <c r="B177" t="s">
         <v>248</v>
       </c>
+      <c r="C177" t="s">
+        <v>333</v>
+      </c>
       <c r="D177">
         <v>2</v>
       </c>
@@ -6164,13 +6824,13 @@
         <v>1314.54</v>
       </c>
       <c r="G177" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H177" t="s">
-        <v>365</v>
+        <v>439</v>
       </c>
       <c r="I177" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="178" spans="1:9">
@@ -6180,6 +6840,9 @@
       <c r="B178" t="s">
         <v>249</v>
       </c>
+      <c r="C178" t="s">
+        <v>334</v>
+      </c>
       <c r="D178">
         <v>2</v>
       </c>
@@ -6190,13 +6853,13 @@
         <v>1970</v>
       </c>
       <c r="G178" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H178" t="s">
-        <v>365</v>
+        <v>439</v>
       </c>
       <c r="I178" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="179" spans="1:9">
@@ -6206,6 +6869,9 @@
       <c r="B179" t="s">
         <v>250</v>
       </c>
+      <c r="C179" t="s">
+        <v>335</v>
+      </c>
       <c r="D179">
         <v>2</v>
       </c>
@@ -6216,13 +6882,13 @@
         <v>5954.3</v>
       </c>
       <c r="G179" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H179" t="s">
-        <v>365</v>
+        <v>439</v>
       </c>
       <c r="I179" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="180" spans="1:9">
@@ -6232,6 +6898,9 @@
       <c r="B180" t="s">
         <v>252</v>
       </c>
+      <c r="C180" t="s">
+        <v>337</v>
+      </c>
       <c r="D180">
         <v>3</v>
       </c>
@@ -6242,13 +6911,13 @@
         <v>8049.84</v>
       </c>
       <c r="G180" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H180" t="s">
-        <v>365</v>
+        <v>439</v>
       </c>
       <c r="I180" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="181" spans="1:9">
@@ -6258,6 +6927,9 @@
       <c r="B181" t="s">
         <v>253</v>
       </c>
+      <c r="C181" t="s">
+        <v>338</v>
+      </c>
       <c r="D181">
         <v>2</v>
       </c>
@@ -6268,13 +6940,13 @@
         <v>569.7</v>
       </c>
       <c r="G181" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H181" t="s">
-        <v>365</v>
+        <v>439</v>
       </c>
       <c r="I181" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="182" spans="1:9">
@@ -6284,6 +6956,9 @@
       <c r="B182" t="s">
         <v>254</v>
       </c>
+      <c r="C182" t="s">
+        <v>339</v>
+      </c>
       <c r="D182">
         <v>2</v>
       </c>
@@ -6294,13 +6969,13 @@
         <v>591.02</v>
       </c>
       <c r="G182" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H182" t="s">
-        <v>365</v>
+        <v>439</v>
       </c>
       <c r="I182" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="183" spans="1:9">
@@ -6310,6 +6985,9 @@
       <c r="B183" t="s">
         <v>255</v>
       </c>
+      <c r="C183" t="s">
+        <v>340</v>
+      </c>
       <c r="D183">
         <v>5</v>
       </c>
@@ -6320,13 +6998,13 @@
         <v>818.3</v>
       </c>
       <c r="G183" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H183" t="s">
-        <v>365</v>
+        <v>439</v>
       </c>
       <c r="I183" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="184" spans="1:9">
@@ -6336,6 +7014,9 @@
       <c r="B184" t="s">
         <v>256</v>
       </c>
+      <c r="C184" t="s">
+        <v>341</v>
+      </c>
       <c r="D184">
         <v>5</v>
       </c>
@@ -6346,13 +7027,13 @@
         <v>2243.3</v>
       </c>
       <c r="G184" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H184" t="s">
-        <v>365</v>
+        <v>439</v>
       </c>
       <c r="I184" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="185" spans="1:9">
@@ -6362,6 +7043,9 @@
       <c r="B185" t="s">
         <v>257</v>
       </c>
+      <c r="C185" t="s">
+        <v>342</v>
+      </c>
       <c r="D185">
         <v>15</v>
       </c>
@@ -6372,13 +7056,13 @@
         <v>4839.3</v>
       </c>
       <c r="G185" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H185" t="s">
-        <v>365</v>
+        <v>439</v>
       </c>
       <c r="I185" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="186" spans="1:9">
@@ -6388,6 +7072,9 @@
       <c r="B186" t="s">
         <v>258</v>
       </c>
+      <c r="C186" t="s">
+        <v>343</v>
+      </c>
       <c r="D186">
         <v>8</v>
       </c>
@@ -6398,13 +7085,13 @@
         <v>24370.88</v>
       </c>
       <c r="G186" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H186" t="s">
-        <v>365</v>
+        <v>439</v>
       </c>
       <c r="I186" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="187" spans="1:9">
@@ -6414,6 +7101,9 @@
       <c r="B187" t="s">
         <v>260</v>
       </c>
+      <c r="C187" t="s">
+        <v>345</v>
+      </c>
       <c r="D187">
         <v>1</v>
       </c>
@@ -6424,13 +7114,13 @@
         <v>445.48</v>
       </c>
       <c r="G187" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H187" t="s">
-        <v>365</v>
+        <v>439</v>
       </c>
       <c r="I187" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="188" spans="1:9">
@@ -6440,6 +7130,9 @@
       <c r="B188" t="s">
         <v>261</v>
       </c>
+      <c r="C188" t="s">
+        <v>346</v>
+      </c>
       <c r="D188">
         <v>2</v>
       </c>
@@ -6450,13 +7143,13 @@
         <v>2981.56</v>
       </c>
       <c r="G188" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H188" t="s">
-        <v>365</v>
+        <v>439</v>
       </c>
       <c r="I188" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="189" spans="1:9">
@@ -6466,6 +7159,9 @@
       <c r="B189" t="s">
         <v>263</v>
       </c>
+      <c r="C189" t="s">
+        <v>348</v>
+      </c>
       <c r="D189">
         <v>3</v>
       </c>
@@ -6476,13 +7172,13 @@
         <v>2007</v>
       </c>
       <c r="G189" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H189" t="s">
-        <v>365</v>
+        <v>439</v>
       </c>
       <c r="I189" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="190" spans="1:9">
@@ -6492,6 +7188,9 @@
       <c r="B190" t="s">
         <v>264</v>
       </c>
+      <c r="C190" t="s">
+        <v>349</v>
+      </c>
       <c r="D190">
         <v>4</v>
       </c>
@@ -6502,13 +7201,13 @@
         <v>16360</v>
       </c>
       <c r="G190" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H190" t="s">
-        <v>365</v>
+        <v>439</v>
       </c>
       <c r="I190" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="191" spans="1:9">
@@ -6518,6 +7217,9 @@
       <c r="B191" t="s">
         <v>267</v>
       </c>
+      <c r="C191" t="s">
+        <v>352</v>
+      </c>
       <c r="D191">
         <v>2</v>
       </c>
@@ -6528,13 +7230,13 @@
         <v>2845.18</v>
       </c>
       <c r="G191" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H191" t="s">
-        <v>365</v>
+        <v>439</v>
       </c>
       <c r="I191" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="192" spans="1:9">
@@ -6544,6 +7246,9 @@
       <c r="B192" t="s">
         <v>268</v>
       </c>
+      <c r="C192" t="s">
+        <v>353</v>
+      </c>
       <c r="D192">
         <v>2</v>
       </c>
@@ -6554,13 +7259,13 @@
         <v>517.62</v>
       </c>
       <c r="G192" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H192" t="s">
-        <v>365</v>
+        <v>439</v>
       </c>
       <c r="I192" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="193" spans="1:9">
@@ -6570,6 +7275,9 @@
       <c r="B193" t="s">
         <v>269</v>
       </c>
+      <c r="C193" t="s">
+        <v>354</v>
+      </c>
       <c r="D193">
         <v>5</v>
       </c>
@@ -6580,13 +7288,13 @@
         <v>355</v>
       </c>
       <c r="G193" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H193" t="s">
-        <v>365</v>
+        <v>439</v>
       </c>
       <c r="I193" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="194" spans="1:9">
@@ -6596,6 +7304,9 @@
       <c r="B194" t="s">
         <v>272</v>
       </c>
+      <c r="C194" t="s">
+        <v>357</v>
+      </c>
       <c r="D194">
         <v>3</v>
       </c>
@@ -6606,13 +7317,13 @@
         <v>1186.98</v>
       </c>
       <c r="G194" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H194" t="s">
-        <v>365</v>
+        <v>439</v>
       </c>
       <c r="I194" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="195" spans="1:9">
@@ -6622,6 +7333,9 @@
       <c r="B195" t="s">
         <v>275</v>
       </c>
+      <c r="C195" t="s">
+        <v>360</v>
+      </c>
       <c r="D195">
         <v>4</v>
       </c>
@@ -6632,13 +7346,13 @@
         <v>1107.92</v>
       </c>
       <c r="G195" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H195" t="s">
-        <v>365</v>
+        <v>439</v>
       </c>
       <c r="I195" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="196" spans="1:9">
@@ -6648,6 +7362,9 @@
       <c r="B196" t="s">
         <v>278</v>
       </c>
+      <c r="C196" t="s">
+        <v>363</v>
+      </c>
       <c r="D196">
         <v>10</v>
       </c>
@@ -6658,13 +7375,13 @@
         <v>3940</v>
       </c>
       <c r="G196" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H196" t="s">
-        <v>365</v>
+        <v>439</v>
       </c>
       <c r="I196" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="197" spans="1:9">
@@ -6674,6 +7391,9 @@
       <c r="B197" t="s">
         <v>281</v>
       </c>
+      <c r="C197" t="s">
+        <v>366</v>
+      </c>
       <c r="D197">
         <v>2</v>
       </c>
@@ -6684,13 +7404,13 @@
         <v>7956.06</v>
       </c>
       <c r="G197" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H197" t="s">
-        <v>365</v>
+        <v>439</v>
       </c>
       <c r="I197" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="198" spans="1:9">
@@ -6700,6 +7420,9 @@
       <c r="B198" t="s">
         <v>284</v>
       </c>
+      <c r="C198" t="s">
+        <v>369</v>
+      </c>
       <c r="D198">
         <v>10</v>
       </c>
@@ -6710,13 +7433,13 @@
         <v>1966.6</v>
       </c>
       <c r="G198" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H198" t="s">
-        <v>365</v>
+        <v>439</v>
       </c>
       <c r="I198" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="199" spans="1:9">
@@ -6726,6 +7449,9 @@
       <c r="B199" t="s">
         <v>286</v>
       </c>
+      <c r="C199" t="s">
+        <v>371</v>
+      </c>
       <c r="D199">
         <v>10</v>
       </c>
@@ -6736,13 +7462,13 @@
         <v>1000</v>
       </c>
       <c r="G199" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H199" t="s">
-        <v>365</v>
+        <v>439</v>
       </c>
       <c r="I199" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="200" spans="1:9">
@@ -6752,6 +7478,9 @@
       <c r="B200" t="s">
         <v>287</v>
       </c>
+      <c r="C200" t="s">
+        <v>372</v>
+      </c>
       <c r="D200">
         <v>5</v>
       </c>
@@ -6762,13 +7491,13 @@
         <v>545</v>
       </c>
       <c r="G200" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H200" t="s">
-        <v>365</v>
+        <v>439</v>
       </c>
       <c r="I200" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="201" spans="1:9">
@@ -6778,6 +7507,9 @@
       <c r="B201" t="s">
         <v>288</v>
       </c>
+      <c r="C201" t="s">
+        <v>373</v>
+      </c>
       <c r="D201">
         <v>10</v>
       </c>
@@ -6788,13 +7520,13 @@
         <v>1564.9</v>
       </c>
       <c r="G201" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H201" t="s">
-        <v>365</v>
+        <v>439</v>
       </c>
       <c r="I201" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="202" spans="1:9">
@@ -6804,6 +7536,9 @@
       <c r="B202" t="s">
         <v>289</v>
       </c>
+      <c r="C202" t="s">
+        <v>374</v>
+      </c>
       <c r="D202">
         <v>1</v>
       </c>
@@ -6814,13 +7549,13 @@
         <v>957.67</v>
       </c>
       <c r="G202" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H202" t="s">
-        <v>365</v>
+        <v>439</v>
       </c>
       <c r="I202" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="203" spans="1:9">
@@ -6830,6 +7565,9 @@
       <c r="B203" t="s">
         <v>291</v>
       </c>
+      <c r="C203" t="s">
+        <v>376</v>
+      </c>
       <c r="D203">
         <v>1</v>
       </c>
@@ -6840,13 +7578,13 @@
         <v>811.2</v>
       </c>
       <c r="G203" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H203" t="s">
-        <v>365</v>
+        <v>439</v>
       </c>
       <c r="I203" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="204" spans="1:9">
@@ -6856,6 +7594,9 @@
       <c r="B204" t="s">
         <v>295</v>
       </c>
+      <c r="C204" t="s">
+        <v>380</v>
+      </c>
       <c r="D204">
         <v>2</v>
       </c>
@@ -6866,13 +7607,13 @@
         <v>1973.68</v>
       </c>
       <c r="G204" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H204" t="s">
-        <v>365</v>
+        <v>439</v>
       </c>
       <c r="I204" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="205" spans="1:9">
@@ -6882,6 +7623,9 @@
       <c r="B205" t="s">
         <v>296</v>
       </c>
+      <c r="C205" t="s">
+        <v>381</v>
+      </c>
       <c r="D205">
         <v>2</v>
       </c>
@@ -6892,13 +7636,13 @@
         <v>210</v>
       </c>
       <c r="G205" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H205" t="s">
-        <v>365</v>
+        <v>439</v>
       </c>
       <c r="I205" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="206" spans="1:9">
@@ -6908,6 +7652,9 @@
       <c r="B206" t="s">
         <v>297</v>
       </c>
+      <c r="C206" t="s">
+        <v>382</v>
+      </c>
       <c r="D206">
         <v>10</v>
       </c>
@@ -6918,13 +7665,13 @@
         <v>1533.3</v>
       </c>
       <c r="G206" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H206" t="s">
-        <v>365</v>
+        <v>439</v>
       </c>
       <c r="I206" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="207" spans="1:9">
@@ -6934,6 +7681,9 @@
       <c r="B207" t="s">
         <v>298</v>
       </c>
+      <c r="C207" t="s">
+        <v>383</v>
+      </c>
       <c r="D207">
         <v>4</v>
       </c>
@@ -6944,13 +7694,13 @@
         <v>3400</v>
       </c>
       <c r="G207" t="s">
-        <v>361</v>
+        <v>435</v>
       </c>
       <c r="H207" t="s">
-        <v>365</v>
+        <v>439</v>
       </c>
       <c r="I207" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="208" spans="1:9">
@@ -6960,6 +7710,9 @@
       <c r="B208" t="s">
         <v>299</v>
       </c>
+      <c r="C208" t="s">
+        <v>384</v>
+      </c>
       <c r="D208">
         <v>5</v>
       </c>
@@ -6970,13 +7723,13 @@
         <v>14750</v>
       </c>
       <c r="G208" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H208" t="s">
-        <v>365</v>
+        <v>439</v>
       </c>
       <c r="I208" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="209" spans="1:9">
@@ -6986,6 +7739,9 @@
       <c r="B209" t="s">
         <v>303</v>
       </c>
+      <c r="C209" t="s">
+        <v>388</v>
+      </c>
       <c r="D209">
         <v>1</v>
       </c>
@@ -6996,13 +7752,13 @@
         <v>14450</v>
       </c>
       <c r="G209" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H209" t="s">
-        <v>365</v>
+        <v>439</v>
       </c>
       <c r="I209" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="210" spans="1:9">
@@ -7012,6 +7768,9 @@
       <c r="B210" t="s">
         <v>304</v>
       </c>
+      <c r="C210" t="s">
+        <v>426</v>
+      </c>
       <c r="D210">
         <v>1</v>
       </c>
@@ -7022,13 +7781,13 @@
         <v>2850.7</v>
       </c>
       <c r="G210" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H210" t="s">
-        <v>365</v>
+        <v>439</v>
       </c>
       <c r="I210" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="211" spans="1:9">
@@ -7038,6 +7797,9 @@
       <c r="B211" t="s">
         <v>306</v>
       </c>
+      <c r="C211" t="s">
+        <v>427</v>
+      </c>
       <c r="D211">
         <v>2</v>
       </c>
@@ -7048,13 +7810,13 @@
         <v>1123.6</v>
       </c>
       <c r="G211" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H211" t="s">
-        <v>365</v>
+        <v>439</v>
       </c>
       <c r="I211" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="212" spans="1:9">
@@ -7064,6 +7826,9 @@
       <c r="B212" t="s">
         <v>307</v>
       </c>
+      <c r="C212" t="s">
+        <v>428</v>
+      </c>
       <c r="D212">
         <v>1</v>
       </c>
@@ -7074,13 +7839,13 @@
         <v>1170.58</v>
       </c>
       <c r="G212" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H212" t="s">
-        <v>365</v>
+        <v>439</v>
       </c>
       <c r="I212" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="213" spans="1:9">
@@ -7090,6 +7855,9 @@
       <c r="B213" t="s">
         <v>308</v>
       </c>
+      <c r="C213" t="s">
+        <v>393</v>
+      </c>
       <c r="D213">
         <v>1</v>
       </c>
@@ -7100,13 +7868,13 @@
         <v>2967.61</v>
       </c>
       <c r="G213" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H213" t="s">
-        <v>365</v>
+        <v>439</v>
       </c>
       <c r="I213" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="214" spans="1:9">
@@ -7116,6 +7884,9 @@
       <c r="B214" t="s">
         <v>309</v>
       </c>
+      <c r="C214" t="s">
+        <v>429</v>
+      </c>
       <c r="D214">
         <v>1</v>
       </c>
@@ -7126,13 +7897,13 @@
         <v>810</v>
       </c>
       <c r="G214" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H214" t="s">
-        <v>365</v>
+        <v>439</v>
       </c>
       <c r="I214" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="215" spans="1:9">
@@ -7142,6 +7913,9 @@
       <c r="B215" t="s">
         <v>310</v>
       </c>
+      <c r="C215" t="s">
+        <v>430</v>
+      </c>
       <c r="D215">
         <v>1</v>
       </c>
@@ -7152,13 +7926,13 @@
         <v>947.51</v>
       </c>
       <c r="G215" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H215" t="s">
-        <v>365</v>
+        <v>439</v>
       </c>
       <c r="I215" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="216" spans="1:9">
@@ -7168,6 +7942,9 @@
       <c r="B216" t="s">
         <v>312</v>
       </c>
+      <c r="C216" t="s">
+        <v>431</v>
+      </c>
       <c r="D216">
         <v>1</v>
       </c>
@@ -7178,13 +7955,13 @@
         <v>1414.99</v>
       </c>
       <c r="G216" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H216" t="s">
-        <v>365</v>
+        <v>439</v>
       </c>
       <c r="I216" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="217" spans="1:9">
@@ -7194,6 +7971,9 @@
       <c r="B217" t="s">
         <v>313</v>
       </c>
+      <c r="C217" t="s">
+        <v>398</v>
+      </c>
       <c r="D217">
         <v>1</v>
       </c>
@@ -7204,13 +7984,13 @@
         <v>425.75</v>
       </c>
       <c r="G217" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H217" t="s">
-        <v>365</v>
+        <v>439</v>
       </c>
       <c r="I217" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="218" spans="1:9">
@@ -7220,6 +8000,9 @@
       <c r="B218" t="s">
         <v>314</v>
       </c>
+      <c r="C218" t="s">
+        <v>399</v>
+      </c>
       <c r="D218">
         <v>1</v>
       </c>
@@ -7230,13 +8013,13 @@
         <v>5183.38</v>
       </c>
       <c r="G218" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H218" t="s">
-        <v>365</v>
+        <v>439</v>
       </c>
       <c r="I218" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="219" spans="1:9">
@@ -7246,6 +8029,9 @@
       <c r="B219" t="s">
         <v>318</v>
       </c>
+      <c r="C219" t="s">
+        <v>404</v>
+      </c>
       <c r="D219">
         <v>1</v>
       </c>
@@ -7256,13 +8042,13 @@
         <v>2527.49</v>
       </c>
       <c r="G219" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H219" t="s">
-        <v>365</v>
+        <v>439</v>
       </c>
       <c r="I219" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="220" spans="1:9">
@@ -7272,6 +8058,9 @@
       <c r="B220" t="s">
         <v>319</v>
       </c>
+      <c r="C220" t="s">
+        <v>405</v>
+      </c>
       <c r="D220">
         <v>2</v>
       </c>
@@ -7282,13 +8071,13 @@
         <v>5396.38</v>
       </c>
       <c r="G220" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H220" t="s">
-        <v>365</v>
+        <v>439</v>
       </c>
       <c r="I220" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="221" spans="1:9">
@@ -7298,6 +8087,9 @@
       <c r="B221" t="s">
         <v>320</v>
       </c>
+      <c r="C221" t="s">
+        <v>406</v>
+      </c>
       <c r="D221">
         <v>1</v>
       </c>
@@ -7308,13 +8100,13 @@
         <v>1520.7</v>
       </c>
       <c r="G221" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H221" t="s">
-        <v>365</v>
+        <v>439</v>
       </c>
       <c r="I221" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="222" spans="1:9">
@@ -7324,6 +8116,9 @@
       <c r="B222" t="s">
         <v>321</v>
       </c>
+      <c r="C222" t="s">
+        <v>407</v>
+      </c>
       <c r="D222">
         <v>2</v>
       </c>
@@ -7334,13 +8129,13 @@
         <v>101.08</v>
       </c>
       <c r="G222" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H222" t="s">
-        <v>365</v>
+        <v>439</v>
       </c>
       <c r="I222" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="223" spans="1:9">
@@ -7350,6 +8145,9 @@
       <c r="B223" t="s">
         <v>322</v>
       </c>
+      <c r="C223" t="s">
+        <v>408</v>
+      </c>
       <c r="D223">
         <v>2</v>
       </c>
@@ -7360,13 +8158,13 @@
         <v>6753.64</v>
       </c>
       <c r="G223" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H223" t="s">
-        <v>365</v>
+        <v>439</v>
       </c>
       <c r="I223" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="224" spans="1:9">
@@ -7376,6 +8174,9 @@
       <c r="B224" t="s">
         <v>323</v>
       </c>
+      <c r="C224" t="s">
+        <v>409</v>
+      </c>
       <c r="D224">
         <v>3</v>
       </c>
@@ -7386,13 +8187,13 @@
         <v>7881.66</v>
       </c>
       <c r="G224" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H224" t="s">
-        <v>365</v>
+        <v>439</v>
       </c>
       <c r="I224" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="225" spans="1:9">
@@ -7402,6 +8203,9 @@
       <c r="B225" t="s">
         <v>324</v>
       </c>
+      <c r="C225" t="s">
+        <v>410</v>
+      </c>
       <c r="D225">
         <v>2</v>
       </c>
@@ -7412,13 +8216,13 @@
         <v>4827.94</v>
       </c>
       <c r="G225" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H225" t="s">
-        <v>365</v>
+        <v>439</v>
       </c>
       <c r="I225" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="226" spans="1:9">
@@ -7428,6 +8232,9 @@
       <c r="B226" t="s">
         <v>327</v>
       </c>
+      <c r="C226" t="s">
+        <v>413</v>
+      </c>
       <c r="D226">
         <v>5</v>
       </c>
@@ -7438,13 +8245,13 @@
         <v>236</v>
       </c>
       <c r="G226" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H226" t="s">
-        <v>365</v>
+        <v>439</v>
       </c>
       <c r="I226" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="227" spans="1:9">
@@ -7454,6 +8261,9 @@
       <c r="B227" t="s">
         <v>250</v>
       </c>
+      <c r="C227" t="s">
+        <v>335</v>
+      </c>
       <c r="D227">
         <v>8</v>
       </c>
@@ -7464,13 +8274,13 @@
         <v>23817.2</v>
       </c>
       <c r="G227" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H227" t="s">
-        <v>363</v>
+        <v>437</v>
       </c>
       <c r="I227" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="228" spans="1:9">
@@ -7480,6 +8290,9 @@
       <c r="B228" t="s">
         <v>259</v>
       </c>
+      <c r="C228" t="s">
+        <v>344</v>
+      </c>
       <c r="D228">
         <v>3</v>
       </c>
@@ -7490,13 +8303,13 @@
         <v>59885.10000000001</v>
       </c>
       <c r="G228" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H228" t="s">
-        <v>363</v>
+        <v>437</v>
       </c>
       <c r="I228" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="229" spans="1:9">
@@ -7506,6 +8319,9 @@
       <c r="B229" t="s">
         <v>263</v>
       </c>
+      <c r="C229" t="s">
+        <v>348</v>
+      </c>
       <c r="D229">
         <v>2</v>
       </c>
@@ -7516,13 +8332,13 @@
         <v>1338</v>
       </c>
       <c r="G229" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H229" t="s">
-        <v>363</v>
+        <v>437</v>
       </c>
       <c r="I229" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="230" spans="1:9">
@@ -7532,6 +8348,9 @@
       <c r="B230" t="s">
         <v>264</v>
       </c>
+      <c r="C230" t="s">
+        <v>349</v>
+      </c>
       <c r="D230">
         <v>12</v>
       </c>
@@ -7542,13 +8361,13 @@
         <v>49032</v>
       </c>
       <c r="G230" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H230" t="s">
-        <v>363</v>
+        <v>437</v>
       </c>
       <c r="I230" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="231" spans="1:9">
@@ -7558,6 +8377,9 @@
       <c r="B231" t="s">
         <v>265</v>
       </c>
+      <c r="C231" t="s">
+        <v>350</v>
+      </c>
       <c r="D231">
         <v>14</v>
       </c>
@@ -7568,13 +8390,13 @@
         <v>41874</v>
       </c>
       <c r="G231" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H231" t="s">
-        <v>363</v>
+        <v>437</v>
       </c>
       <c r="I231" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="232" spans="1:9">
@@ -7584,6 +8406,9 @@
       <c r="B232" t="s">
         <v>273</v>
       </c>
+      <c r="C232" t="s">
+        <v>358</v>
+      </c>
       <c r="D232">
         <v>5</v>
       </c>
@@ -7594,13 +8419,13 @@
         <v>77750</v>
       </c>
       <c r="G232" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H232" t="s">
-        <v>363</v>
+        <v>437</v>
       </c>
       <c r="I232" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="233" spans="1:9">
@@ -7610,6 +8435,9 @@
       <c r="B233" t="s">
         <v>278</v>
       </c>
+      <c r="C233" t="s">
+        <v>363</v>
+      </c>
       <c r="D233">
         <v>93</v>
       </c>
@@ -7620,13 +8448,13 @@
         <v>36642</v>
       </c>
       <c r="G233" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H233" t="s">
-        <v>363</v>
+        <v>437</v>
       </c>
       <c r="I233" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="234" spans="1:9">
@@ -7636,6 +8464,9 @@
       <c r="B234" t="s">
         <v>281</v>
       </c>
+      <c r="C234" t="s">
+        <v>366</v>
+      </c>
       <c r="D234">
         <v>6</v>
       </c>
@@ -7646,13 +8477,13 @@
         <v>23400</v>
       </c>
       <c r="G234" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H234" t="s">
-        <v>363</v>
+        <v>437</v>
       </c>
       <c r="I234" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="235" spans="1:9">
@@ -7662,6 +8493,9 @@
       <c r="B235" t="s">
         <v>301</v>
       </c>
+      <c r="C235" t="s">
+        <v>386</v>
+      </c>
       <c r="D235">
         <v>12</v>
       </c>
@@ -7672,13 +8506,13 @@
         <v>56865.60000000001</v>
       </c>
       <c r="G235" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H235" t="s">
-        <v>363</v>
+        <v>437</v>
       </c>
       <c r="I235" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="236" spans="1:9">
@@ -7688,6 +8522,9 @@
       <c r="B236" t="s">
         <v>303</v>
       </c>
+      <c r="C236" t="s">
+        <v>432</v>
+      </c>
       <c r="D236">
         <v>6</v>
       </c>
@@ -7698,13 +8535,13 @@
         <v>86700</v>
       </c>
       <c r="G236" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H236" t="s">
-        <v>363</v>
+        <v>437</v>
       </c>
       <c r="I236" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="237" spans="1:9">
@@ -7714,6 +8551,9 @@
       <c r="B237" t="s">
         <v>322</v>
       </c>
+      <c r="C237" t="s">
+        <v>433</v>
+      </c>
       <c r="D237">
         <v>15</v>
       </c>
@@ -7724,13 +8564,13 @@
         <v>50652.3</v>
       </c>
       <c r="G237" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="H237" t="s">
-        <v>363</v>
+        <v>437</v>
       </c>
       <c r="I237" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
   </sheetData>
